--- a/en/サンプルプロジェクト/設計書/B1_Customer_Management_System/030_Application_Design/030_Interface_Design/External_Interface_Design_Document_B10101P_Customer_Search_Response_Message_(JSON).xlsx
+++ b/en/サンプルプロジェクト/設計書/B1_Customer_Management_System/030_Application_Design/030_Interface_Design/External_Interface_Design_Document_B10101P_Customer_Search_Response_Message_(JSON).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="6_{A462D8DE-581A-4E75-A2A7-4BEE68E0A38B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C017DB77-AD19-43E7-8A98-78E5D1333A3B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="9800" tabRatio="641" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="641" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="59" state="hidden" r:id="rId1"/>
@@ -40,261 +40,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
-    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{46644CF5-043A-4B50-AB64-776026ED7940}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「レコード構成」は「Record structure」
-としてください。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
-    <comment ref="Q7" authorId="0" shapeId="0" xr:uid="{9FC021EA-56B9-4C7D-B718-0713290F77F6}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「相手先」は「destination」としてください。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{446089C6-01EF-4AD2-8FDD-8EECE202B3C1}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「取引」は「subfunction」としてください。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A28" authorId="0" shapeId="0" xr:uid="{346C3DA4-729B-4979-9040-15BE52F339BA}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「特記事項」は
-「Note」
-としてください。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{58A51869-873E-40D9-BEA7-FDFB9E456383}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「レコード構成」は「Record structure」
-としてください。他のセルやコメントも同様に
-修正をお願いします。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AC10" authorId="0" shapeId="0" xr:uid="{1F86FE02-261D-404F-A40C-32D107797292}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-優先度 高→低の表現が英語では難しいため、空欄にしていただけますでしょうか。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
-    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{9DC61138-294B-49D7-B8D8-DF461235D275}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-configurationではなく、structureとしてください。
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y15" authorId="0" shapeId="0" xr:uid="{445F84B5-4A6B-40A6-AF06-A70BEA4FFE67}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-Data structure
-としてください。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -506,9 +251,6 @@
   </si>
   <si>
     <t>Domain name</t>
-  </si>
-  <si>
-    <t>Mandatory</t>
   </si>
   <si>
     <t>Data type</t>
@@ -963,6 +705,10 @@
   <si>
     <t>　Record structure image</t>
   </si>
+  <si>
+    <t>Required</t>
+    <phoneticPr fontId="12"/>
+  </si>
 </sst>
 </file>
 
@@ -972,7 +718,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="177" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -1160,21 +906,6 @@
       <color indexed="55"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3591,7 +3322,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>57150</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
@@ -3646,7 +3377,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3681,9 +3412,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>107950</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>241300</xdr:rowOff>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3732,7 +3463,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3761,7 +3492,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>27</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
+          <xdr:colOff>161925</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -3818,7 +3549,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3849,7 +3580,7 @@
           <xdr:col>20</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>27</xdr:col>
@@ -3904,7 +3635,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3935,13 +3666,13 @@
           <xdr:col>20</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>241300</xdr:rowOff>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>27</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>241300</xdr:rowOff>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3990,7 +3721,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4019,7 +3750,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>27</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
+          <xdr:colOff>161925</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:from>
@@ -4027,7 +3758,7 @@
           <xdr:col>29</xdr:col>
           <xdr:colOff>209550</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:rowOff>200025</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4076,7 +3807,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4111,9 +3842,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>22</xdr:col>
-          <xdr:colOff>69850</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>241300</xdr:rowOff>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4162,7 +3893,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4199,7 +3930,7 @@
           <xdr:col>26</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>241300</xdr:rowOff>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4248,7 +3979,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4283,9 +4014,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>29</xdr:col>
-          <xdr:colOff>222250</xdr:colOff>
+          <xdr:colOff>219075</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>241300</xdr:rowOff>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4334,7 +4065,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4365,7 +4096,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
@@ -4420,7 +4151,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4449,9 +4180,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>50800</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
@@ -4506,7 +4237,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4592,7 +4323,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4627,9 +4358,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>241300</xdr:rowOff>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4678,7 +4409,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4707,15 +4438,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>18</xdr:col>
-          <xdr:colOff>241300</xdr:colOff>
+          <xdr:colOff>238125</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>241300</xdr:rowOff>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4764,7 +4495,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4793,9 +4524,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>241300</xdr:rowOff>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>19</xdr:col>
@@ -4850,7 +4581,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4936,7 +4667,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4965,7 +4696,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -5022,7 +4753,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5053,7 +4784,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
@@ -5108,7 +4839,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5139,11 +4870,11 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>241300</xdr:colOff>
+          <xdr:colOff>238125</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
@@ -5194,7 +4925,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5229,9 +4960,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>22</xdr:col>
-          <xdr:colOff>69850</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>241300</xdr:rowOff>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5280,7 +5011,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5317,7 +5048,7 @@
           <xdr:col>26</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>241300</xdr:rowOff>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5366,7 +5097,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5395,7 +5126,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>27</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
+          <xdr:colOff>161925</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:from>
@@ -5452,7 +5183,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5481,7 +5212,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>20</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:from>
@@ -5538,7 +5269,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6303,12 +6034,12 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="8.77734375" style="3"/>
+    <col min="1" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13.5" customHeight="1">
+    <row r="1" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
       <c r="S1" s="32"/>
@@ -6320,29 +6051,29 @@
       <c r="Y1" s="32"/>
       <c r="Z1" s="32"/>
     </row>
-    <row r="2" spans="1:26" ht="19.5" customHeight="1">
+    <row r="2" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="4" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="5" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="6" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="8" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="9" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="10" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="11" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="12" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="13" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="14" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="15" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="16" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="17" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="18" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="19" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="20" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="21" spans="2:19" ht="9" customHeight="1"/>
-    <row r="22" spans="2:19" ht="17.25" customHeight="1">
+    <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="2:19" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="2:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
@@ -6360,7 +6091,7 @@
       <c r="R22" s="13"/>
       <c r="S22" s="13"/>
     </row>
-    <row r="23" spans="2:19" ht="16" customHeight="1">
+    <row r="23" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -6371,7 +6102,7 @@
       <c r="K23" s="33"/>
       <c r="L23" s="33"/>
     </row>
-    <row r="24" spans="2:19" ht="18" customHeight="1">
+    <row r="24" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
@@ -6391,7 +6122,7 @@
       <c r="R24" s="14"/>
       <c r="S24" s="14"/>
     </row>
-    <row r="25" spans="2:19" ht="13.5" customHeight="1">
+    <row r="25" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -6403,7 +6134,7 @@
       <c r="K25" s="239"/>
       <c r="L25" s="33"/>
     </row>
-    <row r="26" spans="2:19" ht="13.5" customHeight="1">
+    <row r="26" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -6412,7 +6143,7 @@
       <c r="K26" s="33"/>
       <c r="L26" s="33"/>
     </row>
-    <row r="27" spans="2:19" ht="13.5" customHeight="1">
+    <row r="27" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="7"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -6421,7 +6152,7 @@
       <c r="K27" s="33"/>
       <c r="L27" s="33"/>
     </row>
-    <row r="28" spans="2:19" ht="15" customHeight="1">
+    <row r="28" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="33"/>
@@ -6429,7 +6160,7 @@
       <c r="K28" s="33"/>
       <c r="L28" s="33"/>
     </row>
-    <row r="29" spans="2:19" ht="13.5" customHeight="1">
+    <row r="29" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="6"/>
       <c r="G29" s="8"/>
       <c r="H29" s="6"/>
@@ -6438,7 +6169,7 @@
       <c r="K29" s="33"/>
       <c r="L29" s="33"/>
     </row>
-    <row r="30" spans="2:19" ht="18.75" customHeight="1">
+    <row r="30" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="6"/>
       <c r="G30" s="8"/>
       <c r="H30" s="6"/>
@@ -6447,7 +6178,7 @@
       <c r="K30" s="33"/>
       <c r="L30" s="33"/>
     </row>
-    <row r="31" spans="2:19" ht="13.5" customHeight="1">
+    <row r="31" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="6"/>
       <c r="G31" s="8"/>
       <c r="H31" s="6"/>
@@ -6456,7 +6187,7 @@
       <c r="K31" s="33"/>
       <c r="L31" s="33"/>
     </row>
-    <row r="32" spans="2:19" ht="18.75" customHeight="1">
+    <row r="32" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="33"/>
@@ -6471,7 +6202,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="6:19" ht="18.75" customHeight="1">
+    <row r="33" spans="6:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="33"/>
@@ -6485,7 +6216,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="34" spans="6:19" ht="18.75" customHeight="1">
+    <row r="34" spans="6:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I34" s="33"/>
       <c r="J34" s="35"/>
       <c r="K34" s="33"/>
@@ -6495,509 +6226,509 @@
       <c r="R34" s="55"/>
       <c r="S34" s="55"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P35" s="11"/>
       <c r="Q35" s="55"/>
       <c r="R35" s="55"/>
       <c r="S35" s="55"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P36" s="11"/>
       <c r="Q36" s="55"/>
       <c r="R36" s="55"/>
       <c r="S36" s="53"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P37" s="11"/>
       <c r="Q37" s="56"/>
       <c r="R37" s="56"/>
       <c r="S37" s="56"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P38" s="11"/>
       <c r="Q38" s="56"/>
       <c r="R38" s="56"/>
       <c r="S38" s="56"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P39" s="11"/>
       <c r="Q39" s="56"/>
       <c r="R39" s="56"/>
       <c r="S39" s="56"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="49" ht="13.5" customHeight="1"/>
-    <row r="50" ht="13.5" customHeight="1"/>
-    <row r="51" ht="13.5" customHeight="1"/>
-    <row r="52" ht="13.5" customHeight="1"/>
-    <row r="53" ht="13.5" customHeight="1"/>
-    <row r="54" ht="13.5" customHeight="1"/>
-    <row r="55" ht="13.5" customHeight="1"/>
-    <row r="56" ht="13.5" customHeight="1"/>
-    <row r="57" ht="13.5" customHeight="1"/>
-    <row r="58" ht="13.5" customHeight="1"/>
-    <row r="59" ht="13.5" customHeight="1"/>
-    <row r="60" ht="13.5" customHeight="1"/>
-    <row r="61" ht="13.5" customHeight="1"/>
-    <row r="62" ht="13.5" customHeight="1"/>
-    <row r="63" ht="13.5" customHeight="1"/>
-    <row r="64" ht="13.5" customHeight="1"/>
-    <row r="65" ht="13.5" customHeight="1"/>
-    <row r="66" ht="13.5" customHeight="1"/>
-    <row r="67" ht="13.5" customHeight="1"/>
-    <row r="68" ht="13.5" customHeight="1"/>
-    <row r="69" ht="13.5" customHeight="1"/>
-    <row r="70" ht="13.5" customHeight="1"/>
-    <row r="71" ht="13.5" customHeight="1"/>
-    <row r="72" ht="13.5" customHeight="1"/>
-    <row r="73" ht="13.5" customHeight="1"/>
-    <row r="74" ht="13.5" customHeight="1"/>
-    <row r="75" ht="13.5" customHeight="1"/>
-    <row r="76" ht="13.5" customHeight="1"/>
-    <row r="77" ht="13.5" customHeight="1"/>
-    <row r="78" ht="13.5" customHeight="1"/>
-    <row r="79" ht="13.5" customHeight="1"/>
-    <row r="80" ht="13.5" customHeight="1"/>
-    <row r="81" ht="13.5" customHeight="1"/>
-    <row r="82" ht="13.5" customHeight="1"/>
-    <row r="83" ht="13.5" customHeight="1"/>
-    <row r="84" ht="13.5" customHeight="1"/>
-    <row r="85" ht="13.5" customHeight="1"/>
-    <row r="86" ht="13.5" customHeight="1"/>
-    <row r="87" ht="13.5" customHeight="1"/>
-    <row r="88" ht="13.5" customHeight="1"/>
-    <row r="89" ht="13.5" customHeight="1"/>
-    <row r="90" ht="13.5" customHeight="1"/>
-    <row r="91" ht="13.5" customHeight="1"/>
-    <row r="92" ht="13.5" customHeight="1"/>
-    <row r="93" ht="13.5" customHeight="1"/>
-    <row r="94" ht="13.5" customHeight="1"/>
-    <row r="95" ht="13.5" customHeight="1"/>
-    <row r="96" ht="13.5" customHeight="1"/>
-    <row r="97" ht="13.5" customHeight="1"/>
-    <row r="98" ht="13.5" customHeight="1"/>
-    <row r="99" ht="13.5" customHeight="1"/>
-    <row r="100" ht="13.5" customHeight="1"/>
-    <row r="101" ht="13.5" customHeight="1"/>
-    <row r="102" ht="13.5" customHeight="1"/>
-    <row r="103" ht="13.5" customHeight="1"/>
-    <row r="104" ht="13.5" customHeight="1"/>
-    <row r="105" ht="13.5" customHeight="1"/>
-    <row r="106" ht="13.5" customHeight="1"/>
-    <row r="107" ht="13.5" customHeight="1"/>
-    <row r="108" ht="13.5" customHeight="1"/>
-    <row r="109" ht="13.5" customHeight="1"/>
-    <row r="110" ht="13.5" customHeight="1"/>
-    <row r="111" ht="13.5" customHeight="1"/>
-    <row r="112" ht="13.5" customHeight="1"/>
-    <row r="113" ht="13.5" customHeight="1"/>
-    <row r="114" ht="13.5" customHeight="1"/>
-    <row r="115" ht="13.5" customHeight="1"/>
-    <row r="116" ht="13.5" customHeight="1"/>
-    <row r="117" ht="13.5" customHeight="1"/>
-    <row r="118" ht="13.5" customHeight="1"/>
-    <row r="119" ht="13.5" customHeight="1"/>
-    <row r="120" ht="13.5" customHeight="1"/>
-    <row r="121" ht="13.5" customHeight="1"/>
-    <row r="122" ht="13.5" customHeight="1"/>
-    <row r="123" ht="13.5" customHeight="1"/>
-    <row r="124" ht="13.5" customHeight="1"/>
-    <row r="125" ht="13.5" customHeight="1"/>
-    <row r="126" ht="13.5" customHeight="1"/>
-    <row r="127" ht="13.5" customHeight="1"/>
-    <row r="128" ht="13.5" customHeight="1"/>
-    <row r="129" ht="13.5" customHeight="1"/>
-    <row r="130" ht="13.5" customHeight="1"/>
-    <row r="131" ht="13.5" customHeight="1"/>
-    <row r="132" ht="13.5" customHeight="1"/>
-    <row r="133" ht="13.5" customHeight="1"/>
-    <row r="134" ht="13.5" customHeight="1"/>
-    <row r="135" ht="13.5" customHeight="1"/>
-    <row r="136" ht="13.5" customHeight="1"/>
-    <row r="137" ht="13.5" customHeight="1"/>
-    <row r="138" ht="13.5" customHeight="1"/>
-    <row r="139" ht="13.5" customHeight="1"/>
-    <row r="140" ht="13.5" customHeight="1"/>
-    <row r="141" ht="13.5" customHeight="1"/>
-    <row r="142" ht="13.5" customHeight="1"/>
-    <row r="143" ht="13.5" customHeight="1"/>
-    <row r="144" ht="13.5" customHeight="1"/>
-    <row r="145" ht="13.5" customHeight="1"/>
-    <row r="146" ht="13.5" customHeight="1"/>
-    <row r="147" ht="13.5" customHeight="1"/>
-    <row r="148" ht="13.5" customHeight="1"/>
-    <row r="149" ht="13.5" customHeight="1"/>
-    <row r="150" ht="13.5" customHeight="1"/>
-    <row r="151" ht="13.5" customHeight="1"/>
-    <row r="152" ht="13.5" customHeight="1"/>
-    <row r="153" ht="13.5" customHeight="1"/>
-    <row r="154" ht="13.5" customHeight="1"/>
-    <row r="155" ht="13.5" customHeight="1"/>
-    <row r="156" ht="13.5" customHeight="1"/>
-    <row r="157" ht="13.5" customHeight="1"/>
-    <row r="158" ht="13.5" customHeight="1"/>
-    <row r="159" ht="13.5" customHeight="1"/>
-    <row r="160" ht="13.5" customHeight="1"/>
-    <row r="161" ht="13.5" customHeight="1"/>
-    <row r="162" ht="13.5" customHeight="1"/>
-    <row r="163" ht="13.5" customHeight="1"/>
-    <row r="164" ht="13.5" customHeight="1"/>
-    <row r="165" ht="13.5" customHeight="1"/>
-    <row r="166" ht="13.5" customHeight="1"/>
-    <row r="167" ht="13.5" customHeight="1"/>
-    <row r="168" ht="13.5" customHeight="1"/>
-    <row r="169" ht="13.5" customHeight="1"/>
-    <row r="170" ht="13.5" customHeight="1"/>
-    <row r="171" ht="13.5" customHeight="1"/>
-    <row r="172" ht="13.5" customHeight="1"/>
-    <row r="173" ht="13.5" customHeight="1"/>
-    <row r="174" ht="13.5" customHeight="1"/>
-    <row r="175" ht="13.5" customHeight="1"/>
-    <row r="176" ht="13.5" customHeight="1"/>
-    <row r="177" ht="13.5" customHeight="1"/>
-    <row r="178" ht="13.5" customHeight="1"/>
-    <row r="179" ht="13.5" customHeight="1"/>
-    <row r="180" ht="13.5" customHeight="1"/>
-    <row r="181" ht="13.5" customHeight="1"/>
-    <row r="182" ht="13.5" customHeight="1"/>
-    <row r="183" ht="13.5" customHeight="1"/>
-    <row r="184" ht="13.5" customHeight="1"/>
-    <row r="185" ht="13.5" customHeight="1"/>
-    <row r="186" ht="13.5" customHeight="1"/>
-    <row r="187" ht="13.5" customHeight="1"/>
-    <row r="188" ht="13.5" customHeight="1"/>
-    <row r="189" ht="13.5" customHeight="1"/>
-    <row r="190" ht="13.5" customHeight="1"/>
-    <row r="191" ht="13.5" customHeight="1"/>
-    <row r="192" ht="13.5" customHeight="1"/>
-    <row r="193" ht="13.5" customHeight="1"/>
-    <row r="194" ht="13.5" customHeight="1"/>
-    <row r="195" ht="13.5" customHeight="1"/>
-    <row r="196" ht="13.5" customHeight="1"/>
-    <row r="197" ht="13.5" customHeight="1"/>
-    <row r="198" ht="13.5" customHeight="1"/>
-    <row r="199" ht="13.5" customHeight="1"/>
-    <row r="200" ht="13.5" customHeight="1"/>
-    <row r="201" ht="13.5" customHeight="1"/>
-    <row r="202" ht="13.5" customHeight="1"/>
-    <row r="203" ht="13.5" customHeight="1"/>
-    <row r="204" ht="13.5" customHeight="1"/>
-    <row r="205" ht="13.5" customHeight="1"/>
-    <row r="206" ht="13.5" customHeight="1"/>
-    <row r="207" ht="13.5" customHeight="1"/>
-    <row r="208" ht="13.5" customHeight="1"/>
-    <row r="209" ht="13.5" customHeight="1"/>
-    <row r="210" ht="13.5" customHeight="1"/>
-    <row r="211" ht="13.5" customHeight="1"/>
-    <row r="212" ht="13.5" customHeight="1"/>
-    <row r="213" ht="13.5" customHeight="1"/>
-    <row r="214" ht="13.5" customHeight="1"/>
-    <row r="215" ht="13.5" customHeight="1"/>
-    <row r="216" ht="13.5" customHeight="1"/>
-    <row r="217" ht="13.5" customHeight="1"/>
-    <row r="218" ht="13.5" customHeight="1"/>
-    <row r="219" ht="13.5" customHeight="1"/>
-    <row r="220" ht="13.5" customHeight="1"/>
-    <row r="221" ht="13.5" customHeight="1"/>
-    <row r="222" ht="13.5" customHeight="1"/>
-    <row r="223" ht="13.5" customHeight="1"/>
-    <row r="224" ht="13.5" customHeight="1"/>
-    <row r="225" ht="13.5" customHeight="1"/>
-    <row r="226" ht="13.5" customHeight="1"/>
-    <row r="227" ht="13.5" customHeight="1"/>
-    <row r="228" ht="13.5" customHeight="1"/>
-    <row r="229" ht="13.5" customHeight="1"/>
-    <row r="230" ht="13.5" customHeight="1"/>
-    <row r="231" ht="13.5" customHeight="1"/>
-    <row r="232" ht="13.5" customHeight="1"/>
-    <row r="233" ht="13.5" customHeight="1"/>
-    <row r="234" ht="13.5" customHeight="1"/>
-    <row r="235" ht="13.5" customHeight="1"/>
-    <row r="236" ht="13.5" customHeight="1"/>
-    <row r="237" ht="13.5" customHeight="1"/>
-    <row r="238" ht="13.5" customHeight="1"/>
-    <row r="239" ht="13.5" customHeight="1"/>
-    <row r="240" ht="13.5" customHeight="1"/>
-    <row r="241" ht="13.5" customHeight="1"/>
-    <row r="242" ht="13.5" customHeight="1"/>
-    <row r="243" ht="13.5" customHeight="1"/>
-    <row r="244" ht="13.5" customHeight="1"/>
-    <row r="245" ht="13.5" customHeight="1"/>
-    <row r="246" ht="13.5" customHeight="1"/>
-    <row r="247" ht="13.5" customHeight="1"/>
-    <row r="248" ht="13.5" customHeight="1"/>
-    <row r="249" ht="13.5" customHeight="1"/>
-    <row r="250" ht="13.5" customHeight="1"/>
-    <row r="251" ht="13.5" customHeight="1"/>
-    <row r="252" ht="13.5" customHeight="1"/>
-    <row r="253" ht="13.5" customHeight="1"/>
-    <row r="254" ht="13.5" customHeight="1"/>
-    <row r="255" ht="13.5" customHeight="1"/>
-    <row r="256" ht="13.5" customHeight="1"/>
-    <row r="257" ht="13.5" customHeight="1"/>
-    <row r="258" ht="13.5" customHeight="1"/>
-    <row r="259" ht="13.5" customHeight="1"/>
-    <row r="260" ht="13.5" customHeight="1"/>
-    <row r="261" ht="13.5" customHeight="1"/>
-    <row r="262" ht="13.5" customHeight="1"/>
-    <row r="263" ht="13.5" customHeight="1"/>
-    <row r="264" ht="13.5" customHeight="1"/>
-    <row r="265" ht="13.5" customHeight="1"/>
-    <row r="266" ht="13.5" customHeight="1"/>
-    <row r="267" ht="13.5" customHeight="1"/>
-    <row r="268" ht="13.5" customHeight="1"/>
-    <row r="269" ht="13.5" customHeight="1"/>
-    <row r="270" ht="13.5" customHeight="1"/>
-    <row r="271" ht="13.5" customHeight="1"/>
-    <row r="272" ht="13.5" customHeight="1"/>
-    <row r="273" ht="13.5" customHeight="1"/>
-    <row r="274" ht="13.5" customHeight="1"/>
-    <row r="275" ht="13.5" customHeight="1"/>
-    <row r="276" ht="13.5" customHeight="1"/>
-    <row r="277" ht="13.5" customHeight="1"/>
-    <row r="278" ht="13.5" customHeight="1"/>
-    <row r="279" ht="13.5" customHeight="1"/>
-    <row r="280" ht="13.5" customHeight="1"/>
-    <row r="281" ht="13.5" customHeight="1"/>
-    <row r="282" ht="13.5" customHeight="1"/>
-    <row r="283" ht="13.5" customHeight="1"/>
-    <row r="284" ht="13.5" customHeight="1"/>
-    <row r="285" ht="13.5" customHeight="1"/>
-    <row r="286" ht="13.5" customHeight="1"/>
-    <row r="287" ht="13.5" customHeight="1"/>
-    <row r="288" ht="13.5" customHeight="1"/>
-    <row r="289" ht="13.5" customHeight="1"/>
-    <row r="290" ht="13.5" customHeight="1"/>
-    <row r="291" ht="13.5" customHeight="1"/>
-    <row r="292" ht="13.5" customHeight="1"/>
-    <row r="293" ht="13.5" customHeight="1"/>
-    <row r="294" ht="13.5" customHeight="1"/>
-    <row r="295" ht="13.5" customHeight="1"/>
-    <row r="296" ht="13.5" customHeight="1"/>
-    <row r="297" ht="13.5" customHeight="1"/>
-    <row r="298" ht="13.5" customHeight="1"/>
-    <row r="299" ht="13.5" customHeight="1"/>
-    <row r="300" ht="13.5" customHeight="1"/>
-    <row r="301" ht="13.5" customHeight="1"/>
-    <row r="302" ht="13.5" customHeight="1"/>
-    <row r="303" ht="13.5" customHeight="1"/>
-    <row r="304" ht="13.5" customHeight="1"/>
-    <row r="305" ht="13.5" customHeight="1"/>
-    <row r="306" ht="13.5" customHeight="1"/>
-    <row r="307" ht="13.5" customHeight="1"/>
-    <row r="308" ht="13.5" customHeight="1"/>
-    <row r="309" ht="13.5" customHeight="1"/>
-    <row r="310" ht="13.5" customHeight="1"/>
-    <row r="311" ht="13.5" customHeight="1"/>
-    <row r="312" ht="13.5" customHeight="1"/>
-    <row r="313" ht="13.5" customHeight="1"/>
-    <row r="314" ht="13.5" customHeight="1"/>
-    <row r="315" ht="13.5" customHeight="1"/>
-    <row r="316" ht="13.5" customHeight="1"/>
-    <row r="317" ht="13.5" customHeight="1"/>
-    <row r="318" ht="13.5" customHeight="1"/>
-    <row r="319" ht="13.5" customHeight="1"/>
-    <row r="320" ht="13.5" customHeight="1"/>
-    <row r="321" ht="13.5" customHeight="1"/>
-    <row r="322" ht="13.5" customHeight="1"/>
-    <row r="323" ht="13.5" customHeight="1"/>
-    <row r="324" ht="13.5" customHeight="1"/>
-    <row r="325" ht="13.5" customHeight="1"/>
-    <row r="326" ht="13.5" customHeight="1"/>
-    <row r="327" ht="13.5" customHeight="1"/>
-    <row r="328" ht="13.5" customHeight="1"/>
-    <row r="329" ht="13.5" customHeight="1"/>
-    <row r="330" ht="13.5" customHeight="1"/>
-    <row r="331" ht="13.5" customHeight="1"/>
-    <row r="332" ht="13.5" customHeight="1"/>
-    <row r="333" ht="13.5" customHeight="1"/>
-    <row r="334" ht="13.5" customHeight="1"/>
-    <row r="335" ht="13.5" customHeight="1"/>
-    <row r="336" ht="13.5" customHeight="1"/>
-    <row r="337" ht="13.5" customHeight="1"/>
-    <row r="338" ht="13.5" customHeight="1"/>
-    <row r="339" ht="13.5" customHeight="1"/>
-    <row r="340" ht="13.5" customHeight="1"/>
-    <row r="341" ht="13.5" customHeight="1"/>
-    <row r="342" ht="13.5" customHeight="1"/>
-    <row r="343" ht="13.5" customHeight="1"/>
-    <row r="344" ht="13.5" customHeight="1"/>
-    <row r="345" ht="13.5" customHeight="1"/>
-    <row r="346" ht="13.5" customHeight="1"/>
-    <row r="347" ht="13.5" customHeight="1"/>
-    <row r="348" ht="13.5" customHeight="1"/>
-    <row r="349" ht="13.5" customHeight="1"/>
-    <row r="350" ht="13.5" customHeight="1"/>
-    <row r="351" ht="13.5" customHeight="1"/>
-    <row r="352" ht="13.5" customHeight="1"/>
-    <row r="353" ht="13.5" customHeight="1"/>
-    <row r="354" ht="13.5" customHeight="1"/>
-    <row r="355" ht="13.5" customHeight="1"/>
-    <row r="356" ht="13.5" customHeight="1"/>
-    <row r="357" ht="13.5" customHeight="1"/>
-    <row r="358" ht="13.5" customHeight="1"/>
-    <row r="359" ht="13.5" customHeight="1"/>
-    <row r="360" ht="13.5" customHeight="1"/>
-    <row r="361" ht="13.5" customHeight="1"/>
-    <row r="362" ht="13.5" customHeight="1"/>
-    <row r="363" ht="13.5" customHeight="1"/>
-    <row r="364" ht="13.5" customHeight="1"/>
-    <row r="365" ht="13.5" customHeight="1"/>
-    <row r="366" ht="13.5" customHeight="1"/>
-    <row r="367" ht="13.5" customHeight="1"/>
-    <row r="368" ht="13.5" customHeight="1"/>
-    <row r="369" ht="13.5" customHeight="1"/>
-    <row r="370" ht="13.5" customHeight="1"/>
-    <row r="371" ht="13.5" customHeight="1"/>
-    <row r="372" ht="13.5" customHeight="1"/>
-    <row r="373" ht="13.5" customHeight="1"/>
-    <row r="374" ht="13.5" customHeight="1"/>
-    <row r="375" ht="13.5" customHeight="1"/>
-    <row r="376" ht="13.5" customHeight="1"/>
-    <row r="377" ht="13.5" customHeight="1"/>
-    <row r="378" ht="13.5" customHeight="1"/>
-    <row r="379" ht="13.5" customHeight="1"/>
-    <row r="380" ht="13.5" customHeight="1"/>
-    <row r="381" ht="13.5" customHeight="1"/>
-    <row r="382" ht="13.5" customHeight="1"/>
-    <row r="383" ht="13.5" customHeight="1"/>
-    <row r="384" ht="13.5" customHeight="1"/>
-    <row r="385" ht="13.5" customHeight="1"/>
-    <row r="386" ht="13.5" customHeight="1"/>
-    <row r="387" ht="13.5" customHeight="1"/>
-    <row r="388" ht="13.5" customHeight="1"/>
-    <row r="389" ht="13.5" customHeight="1"/>
-    <row r="390" ht="13.5" customHeight="1"/>
-    <row r="391" ht="13.5" customHeight="1"/>
-    <row r="392" ht="13.5" customHeight="1"/>
-    <row r="393" ht="13.5" customHeight="1"/>
-    <row r="394" ht="13.5" customHeight="1"/>
-    <row r="395" ht="13.5" customHeight="1"/>
-    <row r="396" ht="13.5" customHeight="1"/>
-    <row r="397" ht="13.5" customHeight="1"/>
-    <row r="398" ht="13.5" customHeight="1"/>
-    <row r="399" ht="13.5" customHeight="1"/>
-    <row r="400" ht="13.5" customHeight="1"/>
-    <row r="401" ht="13.5" customHeight="1"/>
-    <row r="402" ht="13.5" customHeight="1"/>
-    <row r="403" ht="13.5" customHeight="1"/>
-    <row r="404" ht="13.5" customHeight="1"/>
-    <row r="405" ht="13.5" customHeight="1"/>
-    <row r="406" ht="13.5" customHeight="1"/>
-    <row r="407" ht="13.5" customHeight="1"/>
-    <row r="408" ht="13.5" customHeight="1"/>
-    <row r="409" ht="13.5" customHeight="1"/>
-    <row r="410" ht="13.5" customHeight="1"/>
-    <row r="411" ht="13.5" customHeight="1"/>
-    <row r="412" ht="13.5" customHeight="1"/>
-    <row r="413" ht="13.5" customHeight="1"/>
-    <row r="414" ht="13.5" customHeight="1"/>
-    <row r="415" ht="13.5" customHeight="1"/>
-    <row r="416" ht="13.5" customHeight="1"/>
-    <row r="417" ht="13.5" customHeight="1"/>
-    <row r="418" ht="13.5" customHeight="1"/>
-    <row r="419" ht="13.5" customHeight="1"/>
-    <row r="420" ht="13.5" customHeight="1"/>
-    <row r="421" ht="13.5" customHeight="1"/>
-    <row r="422" ht="13.5" customHeight="1"/>
-    <row r="423" ht="13.5" customHeight="1"/>
-    <row r="424" ht="13.5" customHeight="1"/>
-    <row r="425" ht="13.5" customHeight="1"/>
-    <row r="426" ht="13.5" customHeight="1"/>
-    <row r="427" ht="13.5" customHeight="1"/>
-    <row r="428" ht="13.5" customHeight="1"/>
-    <row r="429" ht="13.5" customHeight="1"/>
-    <row r="430" ht="13.5" customHeight="1"/>
-    <row r="431" ht="13.5" customHeight="1"/>
-    <row r="432" ht="13.5" customHeight="1"/>
-    <row r="433" ht="13.5" customHeight="1"/>
-    <row r="434" ht="13.5" customHeight="1"/>
-    <row r="435" ht="13.5" customHeight="1"/>
-    <row r="436" ht="13.5" customHeight="1"/>
-    <row r="437" ht="13.5" customHeight="1"/>
-    <row r="438" ht="13.5" customHeight="1"/>
-    <row r="439" ht="13.5" customHeight="1"/>
-    <row r="440" ht="13.5" customHeight="1"/>
-    <row r="441" ht="13.5" customHeight="1"/>
-    <row r="442" ht="13.5" customHeight="1"/>
-    <row r="443" ht="13.5" customHeight="1"/>
-    <row r="444" ht="13.5" customHeight="1"/>
-    <row r="445" ht="13.5" customHeight="1"/>
-    <row r="446" ht="13.5" customHeight="1"/>
-    <row r="447" ht="13.5" customHeight="1"/>
-    <row r="448" ht="13.5" customHeight="1"/>
-    <row r="449" ht="13.5" customHeight="1"/>
-    <row r="450" ht="13.5" customHeight="1"/>
-    <row r="451" ht="13.5" customHeight="1"/>
-    <row r="452" ht="13.5" customHeight="1"/>
-    <row r="453" ht="13.5" customHeight="1"/>
-    <row r="454" ht="13.5" customHeight="1"/>
-    <row r="455" ht="13.5" customHeight="1"/>
-    <row r="456" ht="13.5" customHeight="1"/>
-    <row r="457" ht="13.5" customHeight="1"/>
-    <row r="458" ht="13.5" customHeight="1"/>
-    <row r="459" ht="13.5" customHeight="1"/>
-    <row r="460" ht="13.5" customHeight="1"/>
-    <row r="461" ht="13.5" customHeight="1"/>
-    <row r="462" ht="13.5" customHeight="1"/>
-    <row r="463" ht="13.5" customHeight="1"/>
-    <row r="464" ht="13.5" customHeight="1"/>
-    <row r="465" ht="13.5" customHeight="1"/>
-    <row r="466" ht="13.5" customHeight="1"/>
-    <row r="467" ht="13.5" customHeight="1"/>
-    <row r="468" ht="13.5" customHeight="1"/>
-    <row r="469" ht="13.5" customHeight="1"/>
-    <row r="470" ht="13.5" customHeight="1"/>
-    <row r="471" ht="13.5" customHeight="1"/>
-    <row r="472" ht="13.5" customHeight="1"/>
-    <row r="473" ht="13.5" customHeight="1"/>
-    <row r="474" ht="13.5" customHeight="1"/>
-    <row r="475" ht="13.5" customHeight="1"/>
-    <row r="476" ht="13.5" customHeight="1"/>
-    <row r="477" ht="13.5" customHeight="1"/>
-    <row r="478" ht="13.5" customHeight="1"/>
-    <row r="479" ht="13.5" customHeight="1"/>
-    <row r="480" ht="13.5" customHeight="1"/>
-    <row r="481" ht="13.5" customHeight="1"/>
-    <row r="482" ht="13.5" customHeight="1"/>
-    <row r="483" ht="13.5" customHeight="1"/>
-    <row r="484" ht="13.5" customHeight="1"/>
-    <row r="485" ht="13.5" customHeight="1"/>
-    <row r="486" ht="13.5" customHeight="1"/>
-    <row r="487" ht="13.5" customHeight="1"/>
-    <row r="488" ht="13.5" customHeight="1"/>
-    <row r="489" ht="13.5" customHeight="1"/>
-    <row r="490" ht="13.5" customHeight="1"/>
-    <row r="491" ht="13.5" customHeight="1"/>
-    <row r="492" ht="13.5" customHeight="1"/>
-    <row r="493" ht="13.5" customHeight="1"/>
-    <row r="494" ht="13.5" customHeight="1"/>
-    <row r="495" ht="13.5" customHeight="1"/>
-    <row r="496" ht="13.5" customHeight="1"/>
-    <row r="497" ht="13.5" customHeight="1"/>
-    <row r="498" ht="13.5" customHeight="1"/>
-    <row r="499" ht="13.5" customHeight="1"/>
-    <row r="500" ht="13.5" customHeight="1"/>
-    <row r="501" ht="13.5" customHeight="1"/>
-    <row r="502" ht="13.5" customHeight="1"/>
-    <row r="503" ht="13.5" customHeight="1"/>
-    <row r="504" ht="13.5" customHeight="1"/>
-    <row r="505" ht="13.5" customHeight="1"/>
-    <row r="506" ht="13.5" customHeight="1"/>
-    <row r="507" ht="13.5" customHeight="1"/>
-    <row r="508" ht="13.5" customHeight="1"/>
-    <row r="509" ht="13.5" customHeight="1"/>
-    <row r="510" ht="13.5" customHeight="1"/>
-    <row r="511" ht="13.5" customHeight="1"/>
-    <row r="512" ht="13.5" customHeight="1"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
@@ -7021,16 +6752,16 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16" width="4.77734375" style="19" customWidth="1"/>
-    <col min="17" max="17" width="4.77734375" style="31" customWidth="1"/>
-    <col min="18" max="34" width="4.77734375" style="19" customWidth="1"/>
-    <col min="35" max="35" width="4.77734375" style="31" customWidth="1"/>
-    <col min="36" max="16384" width="4.77734375" style="19"/>
+    <col min="1" max="16" width="4.83203125" style="19" customWidth="1"/>
+    <col min="17" max="17" width="4.83203125" style="31" customWidth="1"/>
+    <col min="18" max="34" width="4.83203125" style="19" customWidth="1"/>
+    <col min="35" max="35" width="4.83203125" style="31" customWidth="1"/>
+    <col min="36" max="16384" width="4.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="24" customFormat="1" ht="12" customHeight="1">
+    <row r="1" spans="1:40" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="240" t="s">
         <v>25</v>
       </c>
@@ -7087,7 +6818,7 @@
       <c r="AM1" s="25"/>
       <c r="AN1" s="26"/>
     </row>
-    <row r="2" spans="1:40" s="24" customFormat="1" ht="12" customHeight="1">
+    <row r="2" spans="1:40" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="240" t="s">
         <v>30</v>
       </c>
@@ -7140,7 +6871,7 @@
       <c r="AM2" s="25"/>
       <c r="AN2" s="25"/>
     </row>
-    <row r="3" spans="1:40" s="24" customFormat="1" ht="12" customHeight="1">
+    <row r="3" spans="1:40" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="240" t="s">
         <v>33</v>
       </c>
@@ -7185,7 +6916,7 @@
       <c r="AM3" s="25"/>
       <c r="AN3" s="25"/>
     </row>
-    <row r="4" spans="1:40" s="27" customFormat="1" ht="19.5" customHeight="1">
+    <row r="4" spans="1:40" s="27" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AB4" s="28"/>
       <c r="AC4" s="28"/>
       <c r="AD4" s="29"/>
@@ -7196,7 +6927,7 @@
       <c r="AI4" s="28"/>
       <c r="AJ4" s="28"/>
     </row>
-    <row r="5" spans="1:40" s="27" customFormat="1" ht="22.5" customHeight="1">
+    <row r="5" spans="1:40" s="27" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N5" s="2" t="s">
         <v>35</v>
       </c>
@@ -7210,7 +6941,7 @@
       <c r="AI5" s="28"/>
       <c r="AJ5" s="28"/>
     </row>
-    <row r="6" spans="1:40" s="27" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:40" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N6" s="2"/>
       <c r="AB6" s="28"/>
       <c r="AC6" s="28"/>
@@ -7222,7 +6953,7 @@
       <c r="AI6" s="28"/>
       <c r="AJ6" s="28"/>
     </row>
-    <row r="7" spans="1:40" ht="15" customHeight="1" thickBot="1">
+    <row r="7" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>36</v>
       </c>
@@ -7274,7 +7005,7 @@
       <c r="AI7" s="267"/>
       <c r="AJ7" s="18"/>
     </row>
-    <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1">
+    <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="57">
         <v>1</v>
       </c>
@@ -7326,7 +7057,7 @@
       <c r="AI8" s="23"/>
       <c r="AJ8" s="18"/>
     </row>
-    <row r="9" spans="1:40" ht="15" customHeight="1">
+    <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="58"/>
       <c r="B9" s="256"/>
       <c r="C9" s="257"/>
@@ -7364,7 +7095,7 @@
       <c r="AI9" s="48"/>
       <c r="AJ9" s="12"/>
     </row>
-    <row r="10" spans="1:40" ht="15" customHeight="1">
+    <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="58"/>
       <c r="B10" s="256"/>
       <c r="C10" s="257"/>
@@ -7401,7 +7132,7 @@
       <c r="AH10" s="47"/>
       <c r="AI10" s="48"/>
     </row>
-    <row r="11" spans="1:40" ht="15" customHeight="1">
+    <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="58"/>
       <c r="B11" s="256"/>
       <c r="C11" s="257"/>
@@ -7438,7 +7169,7 @@
       <c r="AH11" s="47"/>
       <c r="AI11" s="48"/>
     </row>
-    <row r="12" spans="1:40" ht="15" customHeight="1">
+    <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="58"/>
       <c r="B12" s="256"/>
       <c r="C12" s="257"/>
@@ -7475,7 +7206,7 @@
       <c r="AH12" s="47"/>
       <c r="AI12" s="48"/>
     </row>
-    <row r="13" spans="1:40" ht="15" customHeight="1">
+    <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="58"/>
       <c r="B13" s="256"/>
       <c r="C13" s="257"/>
@@ -7512,7 +7243,7 @@
       <c r="AH13" s="47"/>
       <c r="AI13" s="48"/>
     </row>
-    <row r="14" spans="1:40" ht="15" customHeight="1">
+    <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="58"/>
       <c r="B14" s="38"/>
       <c r="C14" s="39"/>
@@ -7549,7 +7280,7 @@
       <c r="AH14" s="47"/>
       <c r="AI14" s="48"/>
     </row>
-    <row r="15" spans="1:40" ht="15" customHeight="1">
+    <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="58"/>
       <c r="B15" s="38"/>
       <c r="C15" s="39"/>
@@ -7586,7 +7317,7 @@
       <c r="AH15" s="47"/>
       <c r="AI15" s="48"/>
     </row>
-    <row r="16" spans="1:40" ht="15" customHeight="1">
+    <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="58"/>
       <c r="B16" s="38"/>
       <c r="C16" s="39"/>
@@ -7623,7 +7354,7 @@
       <c r="AH16" s="47"/>
       <c r="AI16" s="48"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="58"/>
       <c r="B17" s="38"/>
       <c r="C17" s="39"/>
@@ -7660,7 +7391,7 @@
       <c r="AH17" s="47"/>
       <c r="AI17" s="48"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="58"/>
       <c r="B18" s="38"/>
       <c r="C18" s="39"/>
@@ -7697,7 +7428,7 @@
       <c r="AH18" s="47"/>
       <c r="AI18" s="48"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="58"/>
       <c r="B19" s="38"/>
       <c r="C19" s="39"/>
@@ -7734,7 +7465,7 @@
       <c r="AH19" s="47"/>
       <c r="AI19" s="48"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="58"/>
       <c r="B20" s="38"/>
       <c r="C20" s="39"/>
@@ -7771,7 +7502,7 @@
       <c r="AH20" s="47"/>
       <c r="AI20" s="48"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="58"/>
       <c r="B21" s="38"/>
       <c r="C21" s="39"/>
@@ -7808,7 +7539,7 @@
       <c r="AH21" s="47"/>
       <c r="AI21" s="48"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1">
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="58"/>
       <c r="B22" s="38"/>
       <c r="C22" s="39"/>
@@ -7845,7 +7576,7 @@
       <c r="AH22" s="47"/>
       <c r="AI22" s="48"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="58"/>
       <c r="B23" s="38"/>
       <c r="C23" s="39"/>
@@ -7882,7 +7613,7 @@
       <c r="AH23" s="47"/>
       <c r="AI23" s="48"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1">
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="58"/>
       <c r="B24" s="38"/>
       <c r="C24" s="39"/>
@@ -7919,7 +7650,7 @@
       <c r="AH24" s="47"/>
       <c r="AI24" s="48"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1">
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="58"/>
       <c r="B25" s="38"/>
       <c r="C25" s="39"/>
@@ -7956,7 +7687,7 @@
       <c r="AH25" s="47"/>
       <c r="AI25" s="48"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1">
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="58"/>
       <c r="B26" s="38"/>
       <c r="C26" s="39"/>
@@ -7993,7 +7724,7 @@
       <c r="AH26" s="47"/>
       <c r="AI26" s="48"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1">
+    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="58"/>
       <c r="B27" s="38"/>
       <c r="C27" s="39"/>
@@ -8030,7 +7761,7 @@
       <c r="AH27" s="47"/>
       <c r="AI27" s="48"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1">
+    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="58"/>
       <c r="B28" s="38"/>
       <c r="C28" s="39"/>
@@ -8067,7 +7798,7 @@
       <c r="AH28" s="47"/>
       <c r="AI28" s="48"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="58"/>
       <c r="B29" s="38"/>
       <c r="C29" s="39"/>
@@ -8104,7 +7835,7 @@
       <c r="AH29" s="47"/>
       <c r="AI29" s="48"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1">
+    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="58"/>
       <c r="B30" s="38"/>
       <c r="C30" s="39"/>
@@ -8141,7 +7872,7 @@
       <c r="AH30" s="47"/>
       <c r="AI30" s="48"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1">
+    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="58"/>
       <c r="B31" s="38"/>
       <c r="C31" s="39"/>
@@ -8178,7 +7909,7 @@
       <c r="AH31" s="47"/>
       <c r="AI31" s="48"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="58"/>
       <c r="B32" s="38"/>
       <c r="C32" s="39"/>
@@ -8215,7 +7946,7 @@
       <c r="AH32" s="47"/>
       <c r="AI32" s="48"/>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1">
+    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="58"/>
       <c r="B33" s="38"/>
       <c r="C33" s="39"/>
@@ -8316,152 +8047,152 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AI52"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16" width="4.77734375" style="121" customWidth="1"/>
-    <col min="17" max="17" width="4.77734375" style="228" customWidth="1"/>
-    <col min="18" max="33" width="4.77734375" style="121" customWidth="1"/>
-    <col min="34" max="34" width="4.77734375" style="228" customWidth="1"/>
-    <col min="35" max="256" width="4.77734375" style="121"/>
-    <col min="257" max="290" width="4.77734375" style="121" customWidth="1"/>
-    <col min="291" max="512" width="4.77734375" style="121"/>
-    <col min="513" max="546" width="4.77734375" style="121" customWidth="1"/>
-    <col min="547" max="768" width="4.77734375" style="121"/>
-    <col min="769" max="802" width="4.77734375" style="121" customWidth="1"/>
-    <col min="803" max="1024" width="4.77734375" style="121"/>
-    <col min="1025" max="1058" width="4.77734375" style="121" customWidth="1"/>
-    <col min="1059" max="1280" width="4.77734375" style="121"/>
-    <col min="1281" max="1314" width="4.77734375" style="121" customWidth="1"/>
-    <col min="1315" max="1536" width="4.77734375" style="121"/>
-    <col min="1537" max="1570" width="4.77734375" style="121" customWidth="1"/>
-    <col min="1571" max="1792" width="4.77734375" style="121"/>
-    <col min="1793" max="1826" width="4.77734375" style="121" customWidth="1"/>
-    <col min="1827" max="2048" width="4.77734375" style="121"/>
-    <col min="2049" max="2082" width="4.77734375" style="121" customWidth="1"/>
-    <col min="2083" max="2304" width="4.77734375" style="121"/>
-    <col min="2305" max="2338" width="4.77734375" style="121" customWidth="1"/>
-    <col min="2339" max="2560" width="4.77734375" style="121"/>
-    <col min="2561" max="2594" width="4.77734375" style="121" customWidth="1"/>
-    <col min="2595" max="2816" width="4.77734375" style="121"/>
-    <col min="2817" max="2850" width="4.77734375" style="121" customWidth="1"/>
-    <col min="2851" max="3072" width="4.77734375" style="121"/>
-    <col min="3073" max="3106" width="4.77734375" style="121" customWidth="1"/>
-    <col min="3107" max="3328" width="4.77734375" style="121"/>
-    <col min="3329" max="3362" width="4.77734375" style="121" customWidth="1"/>
-    <col min="3363" max="3584" width="4.77734375" style="121"/>
-    <col min="3585" max="3618" width="4.77734375" style="121" customWidth="1"/>
-    <col min="3619" max="3840" width="4.77734375" style="121"/>
-    <col min="3841" max="3874" width="4.77734375" style="121" customWidth="1"/>
-    <col min="3875" max="4096" width="4.77734375" style="121"/>
-    <col min="4097" max="4130" width="4.77734375" style="121" customWidth="1"/>
-    <col min="4131" max="4352" width="4.77734375" style="121"/>
-    <col min="4353" max="4386" width="4.77734375" style="121" customWidth="1"/>
-    <col min="4387" max="4608" width="4.77734375" style="121"/>
-    <col min="4609" max="4642" width="4.77734375" style="121" customWidth="1"/>
-    <col min="4643" max="4864" width="4.77734375" style="121"/>
-    <col min="4865" max="4898" width="4.77734375" style="121" customWidth="1"/>
-    <col min="4899" max="5120" width="4.77734375" style="121"/>
-    <col min="5121" max="5154" width="4.77734375" style="121" customWidth="1"/>
-    <col min="5155" max="5376" width="4.77734375" style="121"/>
-    <col min="5377" max="5410" width="4.77734375" style="121" customWidth="1"/>
-    <col min="5411" max="5632" width="4.77734375" style="121"/>
-    <col min="5633" max="5666" width="4.77734375" style="121" customWidth="1"/>
-    <col min="5667" max="5888" width="4.77734375" style="121"/>
-    <col min="5889" max="5922" width="4.77734375" style="121" customWidth="1"/>
-    <col min="5923" max="6144" width="4.77734375" style="121"/>
-    <col min="6145" max="6178" width="4.77734375" style="121" customWidth="1"/>
-    <col min="6179" max="6400" width="4.77734375" style="121"/>
-    <col min="6401" max="6434" width="4.77734375" style="121" customWidth="1"/>
-    <col min="6435" max="6656" width="4.77734375" style="121"/>
-    <col min="6657" max="6690" width="4.77734375" style="121" customWidth="1"/>
-    <col min="6691" max="6912" width="4.77734375" style="121"/>
-    <col min="6913" max="6946" width="4.77734375" style="121" customWidth="1"/>
-    <col min="6947" max="7168" width="4.77734375" style="121"/>
-    <col min="7169" max="7202" width="4.77734375" style="121" customWidth="1"/>
-    <col min="7203" max="7424" width="4.77734375" style="121"/>
-    <col min="7425" max="7458" width="4.77734375" style="121" customWidth="1"/>
-    <col min="7459" max="7680" width="4.77734375" style="121"/>
-    <col min="7681" max="7714" width="4.77734375" style="121" customWidth="1"/>
-    <col min="7715" max="7936" width="4.77734375" style="121"/>
-    <col min="7937" max="7970" width="4.77734375" style="121" customWidth="1"/>
-    <col min="7971" max="8192" width="4.77734375" style="121"/>
-    <col min="8193" max="8226" width="4.77734375" style="121" customWidth="1"/>
-    <col min="8227" max="8448" width="4.77734375" style="121"/>
-    <col min="8449" max="8482" width="4.77734375" style="121" customWidth="1"/>
-    <col min="8483" max="8704" width="4.77734375" style="121"/>
-    <col min="8705" max="8738" width="4.77734375" style="121" customWidth="1"/>
-    <col min="8739" max="8960" width="4.77734375" style="121"/>
-    <col min="8961" max="8994" width="4.77734375" style="121" customWidth="1"/>
-    <col min="8995" max="9216" width="4.77734375" style="121"/>
-    <col min="9217" max="9250" width="4.77734375" style="121" customWidth="1"/>
-    <col min="9251" max="9472" width="4.77734375" style="121"/>
-    <col min="9473" max="9506" width="4.77734375" style="121" customWidth="1"/>
-    <col min="9507" max="9728" width="4.77734375" style="121"/>
-    <col min="9729" max="9762" width="4.77734375" style="121" customWidth="1"/>
-    <col min="9763" max="9984" width="4.77734375" style="121"/>
-    <col min="9985" max="10018" width="4.77734375" style="121" customWidth="1"/>
-    <col min="10019" max="10240" width="4.77734375" style="121"/>
-    <col min="10241" max="10274" width="4.77734375" style="121" customWidth="1"/>
-    <col min="10275" max="10496" width="4.77734375" style="121"/>
-    <col min="10497" max="10530" width="4.77734375" style="121" customWidth="1"/>
-    <col min="10531" max="10752" width="4.77734375" style="121"/>
-    <col min="10753" max="10786" width="4.77734375" style="121" customWidth="1"/>
-    <col min="10787" max="11008" width="4.77734375" style="121"/>
-    <col min="11009" max="11042" width="4.77734375" style="121" customWidth="1"/>
-    <col min="11043" max="11264" width="4.77734375" style="121"/>
-    <col min="11265" max="11298" width="4.77734375" style="121" customWidth="1"/>
-    <col min="11299" max="11520" width="4.77734375" style="121"/>
-    <col min="11521" max="11554" width="4.77734375" style="121" customWidth="1"/>
-    <col min="11555" max="11776" width="4.77734375" style="121"/>
-    <col min="11777" max="11810" width="4.77734375" style="121" customWidth="1"/>
-    <col min="11811" max="12032" width="4.77734375" style="121"/>
-    <col min="12033" max="12066" width="4.77734375" style="121" customWidth="1"/>
-    <col min="12067" max="12288" width="4.77734375" style="121"/>
-    <col min="12289" max="12322" width="4.77734375" style="121" customWidth="1"/>
-    <col min="12323" max="12544" width="4.77734375" style="121"/>
-    <col min="12545" max="12578" width="4.77734375" style="121" customWidth="1"/>
-    <col min="12579" max="12800" width="4.77734375" style="121"/>
-    <col min="12801" max="12834" width="4.77734375" style="121" customWidth="1"/>
-    <col min="12835" max="13056" width="4.77734375" style="121"/>
-    <col min="13057" max="13090" width="4.77734375" style="121" customWidth="1"/>
-    <col min="13091" max="13312" width="4.77734375" style="121"/>
-    <col min="13313" max="13346" width="4.77734375" style="121" customWidth="1"/>
-    <col min="13347" max="13568" width="4.77734375" style="121"/>
-    <col min="13569" max="13602" width="4.77734375" style="121" customWidth="1"/>
-    <col min="13603" max="13824" width="4.77734375" style="121"/>
-    <col min="13825" max="13858" width="4.77734375" style="121" customWidth="1"/>
-    <col min="13859" max="14080" width="4.77734375" style="121"/>
-    <col min="14081" max="14114" width="4.77734375" style="121" customWidth="1"/>
-    <col min="14115" max="14336" width="4.77734375" style="121"/>
-    <col min="14337" max="14370" width="4.77734375" style="121" customWidth="1"/>
-    <col min="14371" max="14592" width="4.77734375" style="121"/>
-    <col min="14593" max="14626" width="4.77734375" style="121" customWidth="1"/>
-    <col min="14627" max="14848" width="4.77734375" style="121"/>
-    <col min="14849" max="14882" width="4.77734375" style="121" customWidth="1"/>
-    <col min="14883" max="15104" width="4.77734375" style="121"/>
-    <col min="15105" max="15138" width="4.77734375" style="121" customWidth="1"/>
-    <col min="15139" max="15360" width="4.77734375" style="121"/>
-    <col min="15361" max="15394" width="4.77734375" style="121" customWidth="1"/>
-    <col min="15395" max="15616" width="4.77734375" style="121"/>
-    <col min="15617" max="15650" width="4.77734375" style="121" customWidth="1"/>
-    <col min="15651" max="15872" width="4.77734375" style="121"/>
-    <col min="15873" max="15906" width="4.77734375" style="121" customWidth="1"/>
-    <col min="15907" max="16128" width="4.77734375" style="121"/>
-    <col min="16129" max="16162" width="4.77734375" style="121" customWidth="1"/>
-    <col min="16163" max="16384" width="4.77734375" style="121"/>
+    <col min="1" max="16" width="4.83203125" style="121" customWidth="1"/>
+    <col min="17" max="17" width="4.83203125" style="228" customWidth="1"/>
+    <col min="18" max="33" width="4.83203125" style="121" customWidth="1"/>
+    <col min="34" max="34" width="4.83203125" style="228" customWidth="1"/>
+    <col min="35" max="256" width="4.83203125" style="121"/>
+    <col min="257" max="290" width="4.83203125" style="121" customWidth="1"/>
+    <col min="291" max="512" width="4.83203125" style="121"/>
+    <col min="513" max="546" width="4.83203125" style="121" customWidth="1"/>
+    <col min="547" max="768" width="4.83203125" style="121"/>
+    <col min="769" max="802" width="4.83203125" style="121" customWidth="1"/>
+    <col min="803" max="1024" width="4.83203125" style="121"/>
+    <col min="1025" max="1058" width="4.83203125" style="121" customWidth="1"/>
+    <col min="1059" max="1280" width="4.83203125" style="121"/>
+    <col min="1281" max="1314" width="4.83203125" style="121" customWidth="1"/>
+    <col min="1315" max="1536" width="4.83203125" style="121"/>
+    <col min="1537" max="1570" width="4.83203125" style="121" customWidth="1"/>
+    <col min="1571" max="1792" width="4.83203125" style="121"/>
+    <col min="1793" max="1826" width="4.83203125" style="121" customWidth="1"/>
+    <col min="1827" max="2048" width="4.83203125" style="121"/>
+    <col min="2049" max="2082" width="4.83203125" style="121" customWidth="1"/>
+    <col min="2083" max="2304" width="4.83203125" style="121"/>
+    <col min="2305" max="2338" width="4.83203125" style="121" customWidth="1"/>
+    <col min="2339" max="2560" width="4.83203125" style="121"/>
+    <col min="2561" max="2594" width="4.83203125" style="121" customWidth="1"/>
+    <col min="2595" max="2816" width="4.83203125" style="121"/>
+    <col min="2817" max="2850" width="4.83203125" style="121" customWidth="1"/>
+    <col min="2851" max="3072" width="4.83203125" style="121"/>
+    <col min="3073" max="3106" width="4.83203125" style="121" customWidth="1"/>
+    <col min="3107" max="3328" width="4.83203125" style="121"/>
+    <col min="3329" max="3362" width="4.83203125" style="121" customWidth="1"/>
+    <col min="3363" max="3584" width="4.83203125" style="121"/>
+    <col min="3585" max="3618" width="4.83203125" style="121" customWidth="1"/>
+    <col min="3619" max="3840" width="4.83203125" style="121"/>
+    <col min="3841" max="3874" width="4.83203125" style="121" customWidth="1"/>
+    <col min="3875" max="4096" width="4.83203125" style="121"/>
+    <col min="4097" max="4130" width="4.83203125" style="121" customWidth="1"/>
+    <col min="4131" max="4352" width="4.83203125" style="121"/>
+    <col min="4353" max="4386" width="4.83203125" style="121" customWidth="1"/>
+    <col min="4387" max="4608" width="4.83203125" style="121"/>
+    <col min="4609" max="4642" width="4.83203125" style="121" customWidth="1"/>
+    <col min="4643" max="4864" width="4.83203125" style="121"/>
+    <col min="4865" max="4898" width="4.83203125" style="121" customWidth="1"/>
+    <col min="4899" max="5120" width="4.83203125" style="121"/>
+    <col min="5121" max="5154" width="4.83203125" style="121" customWidth="1"/>
+    <col min="5155" max="5376" width="4.83203125" style="121"/>
+    <col min="5377" max="5410" width="4.83203125" style="121" customWidth="1"/>
+    <col min="5411" max="5632" width="4.83203125" style="121"/>
+    <col min="5633" max="5666" width="4.83203125" style="121" customWidth="1"/>
+    <col min="5667" max="5888" width="4.83203125" style="121"/>
+    <col min="5889" max="5922" width="4.83203125" style="121" customWidth="1"/>
+    <col min="5923" max="6144" width="4.83203125" style="121"/>
+    <col min="6145" max="6178" width="4.83203125" style="121" customWidth="1"/>
+    <col min="6179" max="6400" width="4.83203125" style="121"/>
+    <col min="6401" max="6434" width="4.83203125" style="121" customWidth="1"/>
+    <col min="6435" max="6656" width="4.83203125" style="121"/>
+    <col min="6657" max="6690" width="4.83203125" style="121" customWidth="1"/>
+    <col min="6691" max="6912" width="4.83203125" style="121"/>
+    <col min="6913" max="6946" width="4.83203125" style="121" customWidth="1"/>
+    <col min="6947" max="7168" width="4.83203125" style="121"/>
+    <col min="7169" max="7202" width="4.83203125" style="121" customWidth="1"/>
+    <col min="7203" max="7424" width="4.83203125" style="121"/>
+    <col min="7425" max="7458" width="4.83203125" style="121" customWidth="1"/>
+    <col min="7459" max="7680" width="4.83203125" style="121"/>
+    <col min="7681" max="7714" width="4.83203125" style="121" customWidth="1"/>
+    <col min="7715" max="7936" width="4.83203125" style="121"/>
+    <col min="7937" max="7970" width="4.83203125" style="121" customWidth="1"/>
+    <col min="7971" max="8192" width="4.83203125" style="121"/>
+    <col min="8193" max="8226" width="4.83203125" style="121" customWidth="1"/>
+    <col min="8227" max="8448" width="4.83203125" style="121"/>
+    <col min="8449" max="8482" width="4.83203125" style="121" customWidth="1"/>
+    <col min="8483" max="8704" width="4.83203125" style="121"/>
+    <col min="8705" max="8738" width="4.83203125" style="121" customWidth="1"/>
+    <col min="8739" max="8960" width="4.83203125" style="121"/>
+    <col min="8961" max="8994" width="4.83203125" style="121" customWidth="1"/>
+    <col min="8995" max="9216" width="4.83203125" style="121"/>
+    <col min="9217" max="9250" width="4.83203125" style="121" customWidth="1"/>
+    <col min="9251" max="9472" width="4.83203125" style="121"/>
+    <col min="9473" max="9506" width="4.83203125" style="121" customWidth="1"/>
+    <col min="9507" max="9728" width="4.83203125" style="121"/>
+    <col min="9729" max="9762" width="4.83203125" style="121" customWidth="1"/>
+    <col min="9763" max="9984" width="4.83203125" style="121"/>
+    <col min="9985" max="10018" width="4.83203125" style="121" customWidth="1"/>
+    <col min="10019" max="10240" width="4.83203125" style="121"/>
+    <col min="10241" max="10274" width="4.83203125" style="121" customWidth="1"/>
+    <col min="10275" max="10496" width="4.83203125" style="121"/>
+    <col min="10497" max="10530" width="4.83203125" style="121" customWidth="1"/>
+    <col min="10531" max="10752" width="4.83203125" style="121"/>
+    <col min="10753" max="10786" width="4.83203125" style="121" customWidth="1"/>
+    <col min="10787" max="11008" width="4.83203125" style="121"/>
+    <col min="11009" max="11042" width="4.83203125" style="121" customWidth="1"/>
+    <col min="11043" max="11264" width="4.83203125" style="121"/>
+    <col min="11265" max="11298" width="4.83203125" style="121" customWidth="1"/>
+    <col min="11299" max="11520" width="4.83203125" style="121"/>
+    <col min="11521" max="11554" width="4.83203125" style="121" customWidth="1"/>
+    <col min="11555" max="11776" width="4.83203125" style="121"/>
+    <col min="11777" max="11810" width="4.83203125" style="121" customWidth="1"/>
+    <col min="11811" max="12032" width="4.83203125" style="121"/>
+    <col min="12033" max="12066" width="4.83203125" style="121" customWidth="1"/>
+    <col min="12067" max="12288" width="4.83203125" style="121"/>
+    <col min="12289" max="12322" width="4.83203125" style="121" customWidth="1"/>
+    <col min="12323" max="12544" width="4.83203125" style="121"/>
+    <col min="12545" max="12578" width="4.83203125" style="121" customWidth="1"/>
+    <col min="12579" max="12800" width="4.83203125" style="121"/>
+    <col min="12801" max="12834" width="4.83203125" style="121" customWidth="1"/>
+    <col min="12835" max="13056" width="4.83203125" style="121"/>
+    <col min="13057" max="13090" width="4.83203125" style="121" customWidth="1"/>
+    <col min="13091" max="13312" width="4.83203125" style="121"/>
+    <col min="13313" max="13346" width="4.83203125" style="121" customWidth="1"/>
+    <col min="13347" max="13568" width="4.83203125" style="121"/>
+    <col min="13569" max="13602" width="4.83203125" style="121" customWidth="1"/>
+    <col min="13603" max="13824" width="4.83203125" style="121"/>
+    <col min="13825" max="13858" width="4.83203125" style="121" customWidth="1"/>
+    <col min="13859" max="14080" width="4.83203125" style="121"/>
+    <col min="14081" max="14114" width="4.83203125" style="121" customWidth="1"/>
+    <col min="14115" max="14336" width="4.83203125" style="121"/>
+    <col min="14337" max="14370" width="4.83203125" style="121" customWidth="1"/>
+    <col min="14371" max="14592" width="4.83203125" style="121"/>
+    <col min="14593" max="14626" width="4.83203125" style="121" customWidth="1"/>
+    <col min="14627" max="14848" width="4.83203125" style="121"/>
+    <col min="14849" max="14882" width="4.83203125" style="121" customWidth="1"/>
+    <col min="14883" max="15104" width="4.83203125" style="121"/>
+    <col min="15105" max="15138" width="4.83203125" style="121" customWidth="1"/>
+    <col min="15139" max="15360" width="4.83203125" style="121"/>
+    <col min="15361" max="15394" width="4.83203125" style="121" customWidth="1"/>
+    <col min="15395" max="15616" width="4.83203125" style="121"/>
+    <col min="15617" max="15650" width="4.83203125" style="121" customWidth="1"/>
+    <col min="15651" max="15872" width="4.83203125" style="121"/>
+    <col min="15873" max="15906" width="4.83203125" style="121" customWidth="1"/>
+    <col min="15907" max="16128" width="4.83203125" style="121"/>
+    <col min="16129" max="16162" width="4.83203125" style="121" customWidth="1"/>
+    <col min="16163" max="16384" width="4.83203125" style="121"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="110" customFormat="1" ht="12" hidden="1" customHeight="1">
+    <row r="1" spans="1:35" s="110" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="302" t="s">
         <v>0</v>
       </c>
@@ -8517,7 +8248,7 @@
       <c r="AH1" s="297"/>
       <c r="AI1" s="298"/>
     </row>
-    <row r="2" spans="1:35" s="110" customFormat="1" ht="12" hidden="1" customHeight="1">
+    <row r="2" spans="1:35" s="110" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="302" t="s">
         <v>3</v>
       </c>
@@ -8567,7 +8298,7 @@
       <c r="AH2" s="297"/>
       <c r="AI2" s="298"/>
     </row>
-    <row r="3" spans="1:35" s="110" customFormat="1" ht="12" hidden="1" customHeight="1">
+    <row r="3" spans="1:35" s="110" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="302" t="s">
         <v>5</v>
       </c>
@@ -8615,9 +8346,9 @@
       <c r="AH3" s="297"/>
       <c r="AI3" s="298"/>
     </row>
-    <row r="4" spans="1:35" s="96" customFormat="1" ht="19.5" customHeight="1">
+    <row r="4" spans="1:35" s="96" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="200" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4" s="200"/>
       <c r="C4" s="200"/>
@@ -8654,7 +8385,7 @@
       <c r="AH4" s="200"/>
       <c r="AI4" s="200"/>
     </row>
-    <row r="5" spans="1:35" s="96" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:35" s="96" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="200"/>
       <c r="B5" s="200"/>
       <c r="C5" s="200"/>
@@ -8672,7 +8403,7 @@
       <c r="O5" s="200"/>
       <c r="P5" s="200"/>
       <c r="Q5" s="202" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R5" s="200"/>
       <c r="S5" s="200"/>
@@ -8693,14 +8424,14 @@
       <c r="AH5" s="200"/>
       <c r="AI5" s="200"/>
     </row>
-    <row r="6" spans="1:35" s="96" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:35" s="96" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N6" s="203"/>
       <c r="AC6" s="204"/>
     </row>
-    <row r="7" spans="1:35" ht="15" customHeight="1">
+    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="205"/>
       <c r="B7" s="206" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7" s="206"/>
       <c r="D7" s="59"/>
@@ -8736,7 +8467,7 @@
       <c r="AH7" s="209"/>
       <c r="AI7" s="210"/>
     </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1">
+    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="205"/>
       <c r="B8" s="206"/>
       <c r="C8" s="206"/>
@@ -8773,10 +8504,10 @@
       <c r="AH8" s="212"/>
       <c r="AI8" s="210"/>
     </row>
-    <row r="9" spans="1:35" ht="15" customHeight="1">
+    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="205"/>
       <c r="B9" s="206" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" s="206"/>
       <c r="D9" s="59"/>
@@ -8812,7 +8543,7 @@
       <c r="AH9" s="213"/>
       <c r="AI9" s="205"/>
     </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1">
+    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="205"/>
       <c r="B10" s="59"/>
       <c r="C10" s="61"/>
@@ -8849,10 +8580,10 @@
       <c r="AH10" s="209"/>
       <c r="AI10" s="210"/>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1">
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="205"/>
       <c r="B11" s="61" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C11" s="61"/>
       <c r="D11" s="205"/>
@@ -8888,7 +8619,7 @@
       <c r="AH11" s="209"/>
       <c r="AI11" s="210"/>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1">
+    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="205"/>
       <c r="B12" s="61"/>
       <c r="C12" s="206" t="s">
@@ -8927,7 +8658,7 @@
       <c r="AH12" s="209"/>
       <c r="AI12" s="210"/>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1">
+    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="205"/>
       <c r="B13" s="59"/>
       <c r="C13" s="205"/>
@@ -8964,7 +8695,7 @@
       <c r="AH13" s="209"/>
       <c r="AI13" s="210"/>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1">
+    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="205"/>
       <c r="B14" s="210"/>
       <c r="C14" s="206"/>
@@ -9001,7 +8732,7 @@
       <c r="AH14" s="209"/>
       <c r="AI14" s="210"/>
     </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1">
+    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="205"/>
       <c r="B15" s="206"/>
       <c r="C15" s="205"/>
@@ -9038,7 +8769,7 @@
       <c r="AH15" s="209"/>
       <c r="AI15" s="210"/>
     </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1">
+    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="205"/>
       <c r="B16" s="206"/>
       <c r="C16" s="206"/>
@@ -9075,7 +8806,7 @@
       <c r="AH16" s="209"/>
       <c r="AI16" s="210"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="205"/>
       <c r="B17" s="96"/>
       <c r="C17" s="206"/>
@@ -9112,7 +8843,7 @@
       <c r="AH17" s="209"/>
       <c r="AI17" s="210"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="205"/>
       <c r="B18" s="96"/>
       <c r="C18" s="205"/>
@@ -9149,7 +8880,7 @@
       <c r="AH18" s="209"/>
       <c r="AI18" s="210"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="205"/>
       <c r="B19" s="96"/>
       <c r="C19" s="205"/>
@@ -9186,7 +8917,7 @@
       <c r="AH19" s="209"/>
       <c r="AI19" s="210"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="205"/>
       <c r="B20" s="96"/>
       <c r="C20" s="205"/>
@@ -9223,7 +8954,7 @@
       <c r="AH20" s="209"/>
       <c r="AI20" s="210"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="205"/>
       <c r="B21" s="96"/>
       <c r="C21" s="205"/>
@@ -9260,7 +8991,7 @@
       <c r="AH21" s="209"/>
       <c r="AI21" s="210"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1">
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="205"/>
       <c r="B22" s="96"/>
       <c r="C22" s="205"/>
@@ -9297,7 +9028,7 @@
       <c r="AH22" s="209"/>
       <c r="AI22" s="210"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="205"/>
       <c r="B23" s="214"/>
       <c r="C23" s="59"/>
@@ -9334,7 +9065,7 @@
       <c r="AH23" s="209"/>
       <c r="AI23" s="210"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1">
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="205"/>
       <c r="B24" s="96"/>
       <c r="C24" s="205"/>
@@ -9371,7 +9102,7 @@
       <c r="AH24" s="209"/>
       <c r="AI24" s="210"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1">
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="205"/>
       <c r="B25" s="96"/>
       <c r="C25" s="205"/>
@@ -9408,7 +9139,7 @@
       <c r="AH25" s="209"/>
       <c r="AI25" s="210"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1">
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="205"/>
       <c r="B26" s="96"/>
       <c r="C26" s="205"/>
@@ -9445,7 +9176,7 @@
       <c r="AH26" s="209"/>
       <c r="AI26" s="210"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1">
+    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="205"/>
       <c r="B27" s="96"/>
       <c r="C27" s="205"/>
@@ -9482,7 +9213,7 @@
       <c r="AH27" s="209"/>
       <c r="AI27" s="210"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1">
+    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="205"/>
       <c r="B28" s="96"/>
       <c r="C28" s="205"/>
@@ -9519,7 +9250,7 @@
       <c r="AH28" s="209"/>
       <c r="AI28" s="210"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="205"/>
       <c r="B29" s="96"/>
       <c r="C29" s="205"/>
@@ -9556,7 +9287,7 @@
       <c r="AH29" s="209"/>
       <c r="AI29" s="210"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1">
+    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="61"/>
       <c r="B30" s="96"/>
       <c r="C30" s="96"/>
@@ -9593,7 +9324,7 @@
       <c r="AH30" s="217"/>
       <c r="AI30" s="218"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1">
+    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="61"/>
       <c r="B31" s="96"/>
       <c r="C31" s="204"/>
@@ -9630,7 +9361,7 @@
       <c r="AH31" s="217"/>
       <c r="AI31" s="218"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="61"/>
       <c r="B32" s="99"/>
       <c r="C32" s="205"/>
@@ -9667,7 +9398,7 @@
       <c r="AH32" s="217"/>
       <c r="AI32" s="218"/>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1">
+    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="61"/>
       <c r="B33" s="99"/>
       <c r="C33" s="205"/>
@@ -9704,7 +9435,7 @@
       <c r="AH33" s="217"/>
       <c r="AI33" s="218"/>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1">
+    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="61"/>
       <c r="B34" s="99"/>
       <c r="C34" s="205"/>
@@ -9741,7 +9472,7 @@
       <c r="AH34" s="217"/>
       <c r="AI34" s="218"/>
     </row>
-    <row r="35" spans="1:35" ht="15" customHeight="1">
+    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="61"/>
       <c r="B35" s="99"/>
       <c r="C35" s="205"/>
@@ -9778,7 +9509,7 @@
       <c r="AH35" s="217"/>
       <c r="AI35" s="218"/>
     </row>
-    <row r="36" spans="1:35" ht="15" customHeight="1">
+    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="61"/>
       <c r="B36" s="61"/>
       <c r="C36" s="61"/>
@@ -9815,7 +9546,7 @@
       <c r="AH36" s="225"/>
       <c r="AI36" s="61"/>
     </row>
-    <row r="37" spans="1:35" ht="15" customHeight="1">
+    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="226"/>
       <c r="E37" s="226"/>
       <c r="F37" s="226"/>
@@ -9847,7 +9578,7 @@
       <c r="AH37" s="233"/>
       <c r="AI37" s="229"/>
     </row>
-    <row r="38" spans="1:35" ht="15" customHeight="1">
+    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S38" s="229"/>
       <c r="T38" s="229"/>
       <c r="U38" s="230"/>
@@ -9866,7 +9597,7 @@
       <c r="AH38" s="236"/>
       <c r="AI38" s="229"/>
     </row>
-    <row r="39" spans="1:35" ht="15" customHeight="1">
+    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q39" s="237"/>
       <c r="S39" s="229"/>
       <c r="T39" s="230"/>
@@ -9886,7 +9617,7 @@
       <c r="AH39" s="236"/>
       <c r="AI39" s="229"/>
     </row>
-    <row r="40" spans="1:35" ht="15" customHeight="1">
+    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S40" s="229"/>
       <c r="T40" s="229"/>
       <c r="U40" s="229"/>
@@ -9905,7 +9636,7 @@
       <c r="AH40" s="236"/>
       <c r="AI40" s="229"/>
     </row>
-    <row r="41" spans="1:35" ht="15" customHeight="1">
+    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J41" s="226"/>
       <c r="K41" s="226"/>
       <c r="L41" s="226"/>
@@ -9919,37 +9650,37 @@
       <c r="AH41" s="236"/>
       <c r="AI41" s="229"/>
     </row>
-    <row r="42" spans="1:35" ht="15" customHeight="1">
+    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AE42" s="229"/>
       <c r="AF42" s="234"/>
       <c r="AG42" s="235"/>
       <c r="AH42" s="236"/>
       <c r="AI42" s="229"/>
     </row>
-    <row r="43" spans="1:35" ht="15" customHeight="1">
+    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AE43" s="229"/>
       <c r="AF43" s="234"/>
       <c r="AG43" s="234"/>
       <c r="AH43" s="236"/>
       <c r="AI43" s="229"/>
     </row>
-    <row r="44" spans="1:35" ht="15" customHeight="1">
+    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="226"/>
       <c r="AF44" s="238"/>
       <c r="AG44" s="238"/>
     </row>
-    <row r="45" spans="1:35" ht="15" customHeight="1">
+    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="226"/>
       <c r="AG45" s="238"/>
     </row>
-    <row r="46" spans="1:35" ht="15" customHeight="1">
+    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AF46" s="238"/>
       <c r="AG46" s="238"/>
     </row>
-    <row r="47" spans="1:35" ht="15" customHeight="1">
+    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AG47" s="238"/>
     </row>
-    <row r="48" spans="1:35" ht="15" customHeight="1">
+    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S48" s="226"/>
       <c r="T48" s="226"/>
       <c r="V48" s="226"/>
@@ -9962,7 +9693,7 @@
       <c r="AC48" s="226"/>
       <c r="AD48" s="226"/>
     </row>
-    <row r="49" spans="1:34" ht="15" customHeight="1">
+    <row r="49" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R49" s="226"/>
       <c r="S49" s="226"/>
       <c r="T49" s="226"/>
@@ -9977,10 +9708,10 @@
       <c r="AD49" s="226"/>
       <c r="AG49" s="238"/>
     </row>
-    <row r="50" spans="1:34" ht="15" customHeight="1">
+    <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R50" s="226"/>
     </row>
-    <row r="51" spans="1:34" s="226" customFormat="1" ht="15" customHeight="1">
+    <row r="51" spans="1:34" s="226" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="121"/>
       <c r="B51" s="121"/>
       <c r="C51" s="121"/>
@@ -10013,7 +9744,7 @@
       <c r="AD51" s="121"/>
       <c r="AH51" s="237"/>
     </row>
-    <row r="52" spans="1:34" s="226" customFormat="1" ht="15" customHeight="1">
+    <row r="52" spans="1:34" s="226" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="121"/>
       <c r="B52" s="121"/>
       <c r="C52" s="121"/>
@@ -10070,7 +9801,6 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10081,16 +9811,16 @@
   </sheetPr>
   <dimension ref="A1:AI31"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="11.5"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="4.77734375" style="154"/>
+    <col min="1" max="16384" width="4.83203125" style="154"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="151" customFormat="1" ht="12" hidden="1" customHeight="1">
+    <row r="1" spans="1:35" s="151" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="302" t="s">
         <v>6</v>
       </c>
@@ -10146,7 +9876,7 @@
       <c r="AH1" s="327"/>
       <c r="AI1" s="328"/>
     </row>
-    <row r="2" spans="1:35" s="151" customFormat="1" ht="12" hidden="1" customHeight="1">
+    <row r="2" spans="1:35" s="151" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="302" t="s">
         <v>9</v>
       </c>
@@ -10196,7 +9926,7 @@
       <c r="AH2" s="327"/>
       <c r="AI2" s="328"/>
     </row>
-    <row r="3" spans="1:35" s="151" customFormat="1" ht="12" hidden="1" customHeight="1">
+    <row r="3" spans="1:35" s="151" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="302" t="s">
         <v>11</v>
       </c>
@@ -10244,7 +9974,7 @@
       <c r="AH3" s="327"/>
       <c r="AI3" s="328"/>
     </row>
-    <row r="4" spans="1:35" s="151" customFormat="1" ht="12" customHeight="1">
+    <row r="4" spans="1:35" s="151" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AC4" s="130"/>
       <c r="AD4" s="65"/>
       <c r="AE4" s="65"/>
@@ -10253,19 +9983,19 @@
       <c r="AH4" s="152"/>
       <c r="AI4" s="152"/>
     </row>
-    <row r="5" spans="1:35" s="60" customFormat="1" ht="17.25" customHeight="1">
+    <row r="5" spans="1:35" s="60" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="121" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" s="108"/>
     </row>
-    <row r="6" spans="1:35" s="60" customFormat="1" ht="6" customHeight="1">
+    <row r="6" spans="1:35" s="60" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="121"/>
       <c r="C6" s="108"/>
     </row>
-    <row r="7" spans="1:35" ht="20.149999999999999" customHeight="1">
+    <row r="7" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="336" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" s="337"/>
       <c r="C7" s="337"/>
@@ -10283,13 +10013,13 @@
       <c r="O7" s="153"/>
       <c r="P7" s="153"/>
       <c r="Q7" s="369" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R7" s="358"/>
       <c r="S7" s="358"/>
       <c r="T7" s="359"/>
       <c r="U7" s="363" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="V7" s="364"/>
       <c r="W7" s="364"/>
@@ -10306,15 +10036,15 @@
       <c r="AH7" s="364"/>
       <c r="AI7" s="365"/>
     </row>
-    <row r="8" spans="1:35" ht="20.149999999999999" customHeight="1">
+    <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="366" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B8" s="367"/>
       <c r="C8" s="367"/>
       <c r="D8" s="368"/>
       <c r="E8" s="348" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F8" s="349"/>
       <c r="G8" s="349"/>
@@ -10328,13 +10058,13 @@
       <c r="O8" s="349"/>
       <c r="P8" s="349"/>
       <c r="Q8" s="336" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R8" s="337"/>
       <c r="S8" s="337"/>
       <c r="T8" s="338"/>
       <c r="U8" s="348" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V8" s="349"/>
       <c r="W8" s="349"/>
@@ -10351,9 +10081,9 @@
       <c r="AH8" s="349"/>
       <c r="AI8" s="350"/>
     </row>
-    <row r="9" spans="1:35" ht="20.149999999999999" customHeight="1">
+    <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="336" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" s="337"/>
       <c r="C9" s="337"/>
@@ -10390,10 +10120,10 @@
       <c r="AH9" s="156"/>
       <c r="AI9" s="157"/>
     </row>
-    <row r="10" spans="1:35" ht="20.149999999999999" customHeight="1">
+    <row r="10" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="158"/>
       <c r="B10" s="159" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" s="159"/>
       <c r="D10" s="159"/>
@@ -10429,7 +10159,7 @@
       <c r="AH10" s="150"/>
       <c r="AI10" s="160"/>
     </row>
-    <row r="11" spans="1:35" ht="20.149999999999999" customHeight="1">
+    <row r="11" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="161"/>
       <c r="B11" s="150"/>
       <c r="C11" s="159"/>
@@ -10466,7 +10196,7 @@
       <c r="AH11" s="150"/>
       <c r="AI11" s="160"/>
     </row>
-    <row r="12" spans="1:35" ht="20.149999999999999" customHeight="1">
+    <row r="12" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="162"/>
       <c r="B12" s="150"/>
       <c r="C12" s="159"/>
@@ -10503,11 +10233,11 @@
       <c r="AH12" s="150"/>
       <c r="AI12" s="160"/>
     </row>
-    <row r="13" spans="1:35" ht="20.149999999999999" customHeight="1">
+    <row r="13" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="163"/>
       <c r="B13" s="164"/>
       <c r="C13" s="165" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D13" s="165"/>
       <c r="E13" s="165"/>
@@ -10542,9 +10272,9 @@
       <c r="AH13" s="164"/>
       <c r="AI13" s="166"/>
     </row>
-    <row r="14" spans="1:35" ht="20.149999999999999" customHeight="1">
+    <row r="14" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="336" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B14" s="330"/>
       <c r="C14" s="330"/>
@@ -10581,7 +10311,7 @@
       <c r="AH14" s="156"/>
       <c r="AI14" s="157"/>
     </row>
-    <row r="15" spans="1:35" ht="20.149999999999999" customHeight="1">
+    <row r="15" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="161"/>
       <c r="B15" s="150"/>
       <c r="C15" s="150"/>
@@ -10618,7 +10348,7 @@
       <c r="AH15" s="150"/>
       <c r="AI15" s="160"/>
     </row>
-    <row r="16" spans="1:35" ht="20.149999999999999" customHeight="1">
+    <row r="16" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="161"/>
       <c r="B16" s="150"/>
       <c r="C16" s="150"/>
@@ -10655,7 +10385,7 @@
       <c r="AH16" s="150"/>
       <c r="AI16" s="160"/>
     </row>
-    <row r="17" spans="1:35" ht="20.149999999999999" customHeight="1">
+    <row r="17" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="167"/>
       <c r="B17" s="164"/>
       <c r="C17" s="164"/>
@@ -10692,9 +10422,9 @@
       <c r="AH17" s="164"/>
       <c r="AI17" s="166"/>
     </row>
-    <row r="18" spans="1:35" ht="20.149999999999999" customHeight="1">
+    <row r="18" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="351" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B18" s="352"/>
       <c r="C18" s="352"/>
@@ -10712,7 +10442,7 @@
       <c r="O18" s="139"/>
       <c r="P18" s="141"/>
       <c r="Q18" s="351" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R18" s="352"/>
       <c r="S18" s="352"/>
@@ -10733,7 +10463,7 @@
       <c r="AH18" s="159"/>
       <c r="AI18" s="170"/>
     </row>
-    <row r="19" spans="1:35" ht="20.149999999999999" customHeight="1">
+    <row r="19" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="171"/>
       <c r="B19" s="172"/>
       <c r="C19" s="172"/>
@@ -10741,7 +10471,7 @@
       <c r="E19" s="168"/>
       <c r="F19" s="169"/>
       <c r="G19" s="169" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H19" s="141"/>
       <c r="I19" s="141"/>
@@ -10752,7 +10482,7 @@
       <c r="N19" s="141"/>
       <c r="O19" s="141"/>
       <c r="P19" s="141" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q19" s="171"/>
       <c r="R19" s="172"/>
@@ -10768,17 +10498,17 @@
       <c r="AB19" s="150"/>
       <c r="AC19" s="150"/>
       <c r="AD19" s="174" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AE19" s="150"/>
       <c r="AF19" s="150"/>
       <c r="AG19" s="159"/>
       <c r="AH19" s="159"/>
       <c r="AI19" s="160" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:35" ht="20.149999999999999" customHeight="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="175"/>
       <c r="B20" s="176"/>
       <c r="C20" s="176"/>
@@ -10815,15 +10545,15 @@
       <c r="AH20" s="159"/>
       <c r="AI20" s="160"/>
     </row>
-    <row r="21" spans="1:35" ht="20.149999999999999" customHeight="1">
+    <row r="21" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="336" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B21" s="337"/>
       <c r="C21" s="337"/>
       <c r="D21" s="338"/>
       <c r="E21" s="348" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F21" s="349"/>
       <c r="G21" s="349"/>
@@ -10837,7 +10567,7 @@
       <c r="O21" s="349"/>
       <c r="P21" s="350"/>
       <c r="Q21" s="336" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R21" s="337"/>
       <c r="S21" s="337"/>
@@ -10858,9 +10588,9 @@
       <c r="AH21" s="355"/>
       <c r="AI21" s="356"/>
     </row>
-    <row r="22" spans="1:35" ht="20.149999999999999" customHeight="1">
+    <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="357" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B22" s="358"/>
       <c r="C22" s="358"/>
@@ -10878,7 +10608,7 @@
       <c r="O22" s="155"/>
       <c r="P22" s="156"/>
       <c r="Q22" s="357" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R22" s="358"/>
       <c r="S22" s="358"/>
@@ -10899,7 +10629,7 @@
       <c r="AH22" s="180"/>
       <c r="AI22" s="134"/>
     </row>
-    <row r="23" spans="1:35" ht="20.149999999999999" customHeight="1">
+    <row r="23" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="175"/>
       <c r="B23" s="176"/>
       <c r="C23" s="176"/>
@@ -10907,7 +10637,7 @@
       <c r="E23" s="182"/>
       <c r="F23" s="183"/>
       <c r="G23" s="183" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H23" s="164"/>
       <c r="I23" s="164"/>
@@ -10918,7 +10648,7 @@
       <c r="N23" s="164"/>
       <c r="O23" s="164"/>
       <c r="P23" s="164" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q23" s="175"/>
       <c r="R23" s="176"/>
@@ -10931,7 +10661,7 @@
       <c r="Y23" s="185"/>
       <c r="Z23" s="147"/>
       <c r="AA23" s="186" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AB23" s="147"/>
       <c r="AC23" s="147"/>
@@ -10941,18 +10671,18 @@
       <c r="AG23" s="186"/>
       <c r="AH23" s="185"/>
       <c r="AI23" s="148" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:35" ht="20.149999999999999" customHeight="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="345" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B24" s="346"/>
       <c r="C24" s="346"/>
       <c r="D24" s="347"/>
       <c r="E24" s="348" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F24" s="349"/>
       <c r="G24" s="349"/>
@@ -10966,7 +10696,7 @@
       <c r="O24" s="349"/>
       <c r="P24" s="350"/>
       <c r="Q24" s="360" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R24" s="361"/>
       <c r="S24" s="361"/>
@@ -10976,7 +10706,7 @@
       <c r="W24" s="335"/>
       <c r="X24" s="335"/>
       <c r="Y24" s="187" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Z24" s="188"/>
       <c r="AA24" s="188"/>
@@ -10989,9 +10719,9 @@
       <c r="AH24" s="187"/>
       <c r="AI24" s="189"/>
     </row>
-    <row r="25" spans="1:35" ht="20.149999999999999" customHeight="1">
+    <row r="25" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="341" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B25" s="342"/>
       <c r="C25" s="342"/>
@@ -10999,7 +10729,7 @@
       <c r="E25" s="178"/>
       <c r="F25" s="190"/>
       <c r="G25" s="179" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H25" s="332"/>
       <c r="I25" s="333"/>
@@ -11011,12 +10741,12 @@
       <c r="O25" s="333"/>
       <c r="P25" s="333"/>
       <c r="Q25" s="156" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R25" s="156"/>
       <c r="S25" s="179"/>
       <c r="T25" s="179" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U25" s="344"/>
       <c r="V25" s="344"/>
@@ -11028,7 +10758,7 @@
       <c r="AB25" s="344"/>
       <c r="AC25" s="344"/>
       <c r="AD25" s="156" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AE25" s="156"/>
       <c r="AF25" s="156"/>
@@ -11036,7 +10766,7 @@
       <c r="AH25" s="156"/>
       <c r="AI25" s="157"/>
     </row>
-    <row r="26" spans="1:35" ht="20.149999999999999" customHeight="1">
+    <row r="26" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="191"/>
       <c r="B26" s="192"/>
       <c r="C26" s="192"/>
@@ -11044,7 +10774,7 @@
       <c r="E26" s="158"/>
       <c r="F26" s="194"/>
       <c r="G26" s="174" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H26" s="340"/>
       <c r="I26" s="340"/>
@@ -11056,12 +10786,12 @@
       <c r="O26" s="340"/>
       <c r="P26" s="340"/>
       <c r="Q26" s="150" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R26" s="150"/>
       <c r="S26" s="174"/>
       <c r="T26" s="174" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U26" s="340"/>
       <c r="V26" s="340"/>
@@ -11073,7 +10803,7 @@
       <c r="AB26" s="340"/>
       <c r="AC26" s="340"/>
       <c r="AD26" s="150" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AE26" s="150"/>
       <c r="AF26" s="150"/>
@@ -11081,7 +10811,7 @@
       <c r="AH26" s="150"/>
       <c r="AI26" s="160"/>
     </row>
-    <row r="27" spans="1:35" ht="20.149999999999999" customHeight="1">
+    <row r="27" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="195"/>
       <c r="B27" s="196"/>
       <c r="C27" s="196"/>
@@ -11089,7 +10819,7 @@
       <c r="E27" s="182"/>
       <c r="F27" s="198"/>
       <c r="G27" s="183" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H27" s="339"/>
       <c r="I27" s="339"/>
@@ -11101,12 +10831,12 @@
       <c r="O27" s="339"/>
       <c r="P27" s="339"/>
       <c r="Q27" s="164" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R27" s="164"/>
       <c r="S27" s="183"/>
       <c r="T27" s="183" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U27" s="339"/>
       <c r="V27" s="339"/>
@@ -11123,12 +10853,12 @@
       <c r="AG27" s="339"/>
       <c r="AH27" s="339"/>
       <c r="AI27" s="166" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="28" spans="1:35" ht="20.149999999999999" customHeight="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="329" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B28" s="330"/>
       <c r="C28" s="330"/>
@@ -11165,7 +10895,7 @@
       <c r="AH28" s="156"/>
       <c r="AI28" s="157"/>
     </row>
-    <row r="29" spans="1:35" ht="20.149999999999999" customHeight="1">
+    <row r="29" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="199"/>
       <c r="B29" s="150"/>
       <c r="C29" s="150"/>
@@ -11202,7 +10932,7 @@
       <c r="AH29" s="150"/>
       <c r="AI29" s="160"/>
     </row>
-    <row r="30" spans="1:35" ht="20.149999999999999" customHeight="1">
+    <row r="30" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="199"/>
       <c r="B30" s="150"/>
       <c r="C30" s="150"/>
@@ -11239,7 +10969,7 @@
       <c r="AH30" s="150"/>
       <c r="AI30" s="160"/>
     </row>
-    <row r="31" spans="1:35" ht="20.149999999999999" customHeight="1">
+    <row r="31" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="167"/>
       <c r="B31" s="164"/>
       <c r="C31" s="164"/>
@@ -11346,7 +11076,7 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
@@ -11372,9 +11102,9 @@
                   </from>
                   <to>
                     <xdr:col>12</xdr:col>
-                    <xdr:colOff>107950</xdr:colOff>
+                    <xdr:colOff>104775</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>241300</xdr:rowOff>
+                    <xdr:rowOff>238125</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11388,7 +11118,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>27</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
+                    <xdr:colOff>161925</xdr:colOff>
                     <xdr:row>17</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -11412,7 +11142,7 @@
                     <xdr:col>20</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>17</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>27</xdr:col>
@@ -11434,13 +11164,13 @@
                     <xdr:col>20</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>17</xdr:row>
-                    <xdr:rowOff>241300</xdr:rowOff>
+                    <xdr:rowOff>238125</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>27</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>241300</xdr:rowOff>
+                    <xdr:rowOff>238125</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11454,7 +11184,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>27</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
+                    <xdr:colOff>161925</xdr:colOff>
                     <xdr:row>17</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </from>
@@ -11462,7 +11192,7 @@
                     <xdr:col>29</xdr:col>
                     <xdr:colOff>209550</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>200025</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11482,9 +11212,9 @@
                   </from>
                   <to>
                     <xdr:col>22</xdr:col>
-                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>241300</xdr:rowOff>
+                    <xdr:rowOff>238125</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11506,7 +11236,7 @@
                     <xdr:col>26</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>241300</xdr:rowOff>
+                    <xdr:rowOff>238125</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11526,9 +11256,9 @@
                   </from>
                   <to>
                     <xdr:col>29</xdr:col>
-                    <xdr:colOff>222250</xdr:colOff>
+                    <xdr:colOff>219075</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>241300</xdr:rowOff>
+                    <xdr:rowOff>238125</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11544,7 +11274,7 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
@@ -11564,9 +11294,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>17</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
@@ -11614,9 +11344,9 @@
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>31750</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>241300</xdr:rowOff>
+                    <xdr:rowOff>238125</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11630,15 +11360,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>17</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>18</xdr:col>
-                    <xdr:colOff>241300</xdr:colOff>
+                    <xdr:colOff>238125</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>241300</xdr:rowOff>
+                    <xdr:rowOff>238125</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11652,9 +11382,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>17</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>241300</xdr:rowOff>
+                    <xdr:rowOff>238125</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>19</xdr:col>
@@ -11696,7 +11426,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>17</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>26</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -11720,7 +11450,7 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
@@ -11742,11 +11472,11 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>241300</xdr:colOff>
+                    <xdr:colOff>238125</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </to>
@@ -11768,9 +11498,9 @@
                   </from>
                   <to>
                     <xdr:col>22</xdr:col>
-                    <xdr:colOff>69850</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>241300</xdr:rowOff>
+                    <xdr:rowOff>238125</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11792,7 +11522,7 @@
                     <xdr:col>26</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>241300</xdr:rowOff>
+                    <xdr:rowOff>238125</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11806,7 +11536,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>27</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
+                    <xdr:colOff>161925</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </from>
@@ -11828,7 +11558,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>20</xdr:col>
-                    <xdr:colOff>31750</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </from>
@@ -11850,22 +11580,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet31">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AU31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:F20"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="11.5"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="4.77734375" style="87"/>
+    <col min="1" max="16384" width="4.83203125" style="87"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="109" customFormat="1" ht="12" hidden="1" customHeight="1">
+    <row r="1" spans="1:36" s="109" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="302" t="s">
         <v>12</v>
       </c>
@@ -11921,7 +11651,7 @@
       <c r="AH1" s="327"/>
       <c r="AI1" s="328"/>
     </row>
-    <row r="2" spans="1:36" s="109" customFormat="1" ht="12" hidden="1" customHeight="1">
+    <row r="2" spans="1:36" s="109" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="302" t="s">
         <v>15</v>
       </c>
@@ -11971,7 +11701,7 @@
       <c r="AH2" s="327"/>
       <c r="AI2" s="328"/>
     </row>
-    <row r="3" spans="1:36" s="109" customFormat="1" ht="12" hidden="1" customHeight="1">
+    <row r="3" spans="1:36" s="109" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="302" t="s">
         <v>17</v>
       </c>
@@ -12019,7 +11749,7 @@
       <c r="AH3" s="327"/>
       <c r="AI3" s="328"/>
     </row>
-    <row r="4" spans="1:36" s="109" customFormat="1" ht="12" customHeight="1">
+    <row r="4" spans="1:36" s="109" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="110"/>
       <c r="B4" s="110"/>
       <c r="C4" s="110"/>
@@ -12056,7 +11786,7 @@
       <c r="AH4" s="115"/>
       <c r="AI4" s="115"/>
     </row>
-    <row r="5" spans="1:36" s="109" customFormat="1" ht="12" customHeight="1">
+    <row r="5" spans="1:36" s="109" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="116"/>
       <c r="B5" s="116"/>
       <c r="C5" s="116"/>
@@ -12076,19 +11806,19 @@
       <c r="AI5" s="119"/>
       <c r="AJ5" s="120"/>
     </row>
-    <row r="6" spans="1:36" s="60" customFormat="1">
+    <row r="6" spans="1:36" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="121" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C6" s="122"/>
     </row>
-    <row r="7" spans="1:36" s="60" customFormat="1">
+    <row r="7" spans="1:36" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="121"/>
       <c r="C7" s="122"/>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" s="438" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B8" s="386"/>
       <c r="C8" s="386"/>
@@ -12118,7 +11848,7 @@
       <c r="AA8" s="386"/>
       <c r="AB8" s="439"/>
       <c r="AC8" s="385" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AD8" s="386"/>
       <c r="AE8" s="387"/>
@@ -12127,24 +11857,24 @@
       <c r="AH8" s="383"/>
       <c r="AI8" s="384"/>
     </row>
-    <row r="9" spans="1:36" s="124" customFormat="1" ht="22.5" customHeight="1">
+    <row r="9" spans="1:36" s="124" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="123" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="432" t="s">
         <v>88</v>
-      </c>
-      <c r="B9" s="432" t="s">
-        <v>89</v>
       </c>
       <c r="C9" s="433"/>
       <c r="D9" s="433"/>
       <c r="E9" s="433"/>
       <c r="F9" s="434"/>
       <c r="G9" s="432" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H9" s="435"/>
       <c r="I9" s="437"/>
       <c r="J9" s="432" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K9" s="435"/>
       <c r="L9" s="435"/>
@@ -12153,16 +11883,16 @@
       <c r="O9" s="435"/>
       <c r="P9" s="437"/>
       <c r="Q9" s="452" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R9" s="454"/>
       <c r="S9" s="452" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T9" s="453"/>
       <c r="U9" s="454"/>
       <c r="V9" s="432" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W9" s="435"/>
       <c r="X9" s="435"/>
@@ -12171,23 +11901,23 @@
       <c r="AA9" s="435"/>
       <c r="AB9" s="436"/>
       <c r="AC9" s="446" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AD9" s="447"/>
       <c r="AE9" s="447"/>
       <c r="AF9" s="447"/>
       <c r="AG9" s="447"/>
       <c r="AH9" s="448" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI9" s="448"/>
     </row>
-    <row r="10" spans="1:36" ht="19.5" customHeight="1">
+    <row r="10" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="125">
         <v>1</v>
       </c>
       <c r="B10" s="395" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10" s="396"/>
       <c r="D10" s="396"/>
@@ -12223,7 +11953,7 @@
       <c r="AH10" s="393"/>
       <c r="AI10" s="394"/>
     </row>
-    <row r="11" spans="1:36" ht="20.149999999999999" customHeight="1">
+    <row r="11" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="126">
         <v>2</v>
       </c>
@@ -12262,7 +11992,7 @@
       <c r="AH11" s="388"/>
       <c r="AI11" s="389"/>
     </row>
-    <row r="12" spans="1:36" ht="20.149999999999999" customHeight="1">
+    <row r="12" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="126">
         <v>3</v>
       </c>
@@ -12301,7 +12031,7 @@
       <c r="AH12" s="388"/>
       <c r="AI12" s="389"/>
     </row>
-    <row r="13" spans="1:36" ht="20.149999999999999" customHeight="1">
+    <row r="13" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="126">
         <v>4</v>
       </c>
@@ -12340,7 +12070,7 @@
       <c r="AH13" s="388"/>
       <c r="AI13" s="389"/>
     </row>
-    <row r="14" spans="1:36" ht="20.149999999999999" customHeight="1">
+    <row r="14" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="126">
         <v>5</v>
       </c>
@@ -12379,7 +12109,7 @@
       <c r="AH14" s="388"/>
       <c r="AI14" s="389"/>
     </row>
-    <row r="15" spans="1:36" ht="20.149999999999999" customHeight="1">
+    <row r="15" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="126">
         <v>6</v>
       </c>
@@ -12418,7 +12148,7 @@
       <c r="AH15" s="388"/>
       <c r="AI15" s="389"/>
     </row>
-    <row r="16" spans="1:36" ht="20.149999999999999" customHeight="1">
+    <row r="16" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="127">
         <v>7</v>
       </c>
@@ -12457,7 +12187,7 @@
       <c r="AH16" s="388"/>
       <c r="AI16" s="389"/>
     </row>
-    <row r="17" spans="1:47" ht="20.149999999999999" customHeight="1">
+    <row r="17" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="127">
         <v>8</v>
       </c>
@@ -12496,7 +12226,7 @@
       <c r="AH17" s="388"/>
       <c r="AI17" s="389"/>
     </row>
-    <row r="18" spans="1:47" ht="20.149999999999999" customHeight="1">
+    <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="128">
         <v>9</v>
       </c>
@@ -12535,7 +12265,7 @@
       <c r="AH18" s="427"/>
       <c r="AI18" s="428"/>
     </row>
-    <row r="19" spans="1:47" ht="20.149999999999999" customHeight="1">
+    <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="416"/>
       <c r="B19" s="417"/>
       <c r="C19" s="417"/>
@@ -12573,9 +12303,9 @@
       <c r="AI19" s="65"/>
       <c r="AJ19" s="131"/>
     </row>
-    <row r="20" spans="1:47" ht="20.149999999999999" customHeight="1">
+    <row r="20" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="410" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B20" s="411"/>
       <c r="C20" s="411"/>
@@ -12620,7 +12350,7 @@
       <c r="AT20" s="60"/>
       <c r="AU20" s="60"/>
     </row>
-    <row r="21" spans="1:47" ht="20.149999999999999" customHeight="1">
+    <row r="21" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="136"/>
       <c r="B21" s="137"/>
       <c r="C21" s="138"/>
@@ -12666,7 +12396,7 @@
       <c r="AT21" s="60"/>
       <c r="AU21" s="60"/>
     </row>
-    <row r="22" spans="1:47" ht="20.149999999999999" customHeight="1">
+    <row r="22" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="136"/>
       <c r="B22" s="137"/>
       <c r="C22" s="137"/>
@@ -12712,7 +12442,7 @@
       <c r="AT22" s="60"/>
       <c r="AU22" s="60"/>
     </row>
-    <row r="23" spans="1:47" ht="20.149999999999999" customHeight="1">
+    <row r="23" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="136"/>
       <c r="B23" s="137"/>
       <c r="C23" s="137"/>
@@ -12758,7 +12488,7 @@
       <c r="AT23" s="60"/>
       <c r="AU23" s="60"/>
     </row>
-    <row r="24" spans="1:47" ht="20.149999999999999" customHeight="1">
+    <row r="24" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="136"/>
       <c r="B24" s="137"/>
       <c r="C24" s="137"/>
@@ -12804,7 +12534,7 @@
       <c r="AT24" s="60"/>
       <c r="AU24" s="60"/>
     </row>
-    <row r="25" spans="1:47" ht="20.149999999999999" customHeight="1">
+    <row r="25" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="136"/>
       <c r="B25" s="137"/>
       <c r="C25" s="137"/>
@@ -12850,7 +12580,7 @@
       <c r="AT25" s="60"/>
       <c r="AU25" s="60"/>
     </row>
-    <row r="26" spans="1:47" ht="20.149999999999999" customHeight="1">
+    <row r="26" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="136"/>
       <c r="B26" s="137"/>
       <c r="C26" s="137"/>
@@ -12896,7 +12626,7 @@
       <c r="AT26" s="60"/>
       <c r="AU26" s="60"/>
     </row>
-    <row r="27" spans="1:47" ht="20.149999999999999" customHeight="1">
+    <row r="27" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="136"/>
       <c r="B27" s="137"/>
       <c r="C27" s="137"/>
@@ -12942,7 +12672,7 @@
       <c r="AT27" s="60"/>
       <c r="AU27" s="60"/>
     </row>
-    <row r="28" spans="1:47" ht="20.149999999999999" customHeight="1">
+    <row r="28" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="136"/>
       <c r="B28" s="138"/>
       <c r="C28" s="138"/>
@@ -12988,7 +12718,7 @@
       <c r="AT28" s="60"/>
       <c r="AU28" s="60"/>
     </row>
-    <row r="29" spans="1:47" ht="20.149999999999999" customHeight="1">
+    <row r="29" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="136"/>
       <c r="B29" s="138"/>
       <c r="C29" s="137"/>
@@ -13034,7 +12764,7 @@
       <c r="AT29" s="60"/>
       <c r="AU29" s="60"/>
     </row>
-    <row r="30" spans="1:47" ht="20.149999999999999" customHeight="1">
+    <row r="30" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="144"/>
       <c r="B30" s="145"/>
       <c r="C30" s="146"/>
@@ -13080,7 +12810,7 @@
       <c r="AT30" s="60"/>
       <c r="AU30" s="60"/>
     </row>
-    <row r="31" spans="1:47" ht="20.149999999999999" customHeight="1">
+    <row r="31" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="149"/>
       <c r="B31" s="66"/>
       <c r="C31" s="131"/>
@@ -13248,29 +12978,28 @@
   <headerFooter>
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:CR32"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AB22" sqref="AB22"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="8" width="4.77734375" style="60"/>
-    <col min="9" max="9" width="7.109375" style="60" customWidth="1"/>
-    <col min="10" max="16384" width="4.77734375" style="60"/>
+    <col min="1" max="8" width="4.83203125" style="60"/>
+    <col min="9" max="9" width="7.1640625" style="60" customWidth="1"/>
+    <col min="10" max="16384" width="4.83203125" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" s="59" customFormat="1" ht="12" hidden="1" customHeight="1">
+    <row r="1" spans="1:96" s="59" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="302" t="s">
         <v>18</v>
       </c>
@@ -13326,7 +13055,7 @@
       <c r="AH1" s="327"/>
       <c r="AI1" s="328"/>
     </row>
-    <row r="2" spans="1:96" s="59" customFormat="1" ht="12" hidden="1" customHeight="1">
+    <row r="2" spans="1:96" s="59" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="302" t="s">
         <v>21</v>
       </c>
@@ -13376,7 +13105,7 @@
       <c r="AH2" s="327"/>
       <c r="AI2" s="328"/>
     </row>
-    <row r="3" spans="1:96" s="59" customFormat="1" ht="12" hidden="1" customHeight="1">
+    <row r="3" spans="1:96" s="59" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="302" t="s">
         <v>23</v>
       </c>
@@ -13424,8 +13153,8 @@
       <c r="AH3" s="327"/>
       <c r="AI3" s="328"/>
     </row>
-    <row r="4" spans="1:96" ht="12" customHeight="1"/>
-    <row r="5" spans="1:96" ht="15" customHeight="1">
+    <row r="4" spans="1:96" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="61" t="s">
         <v>65</v>
       </c>
@@ -13433,7 +13162,7 @@
       <c r="C5" s="62"/>
       <c r="D5" s="62"/>
     </row>
-    <row r="6" spans="1:96" ht="15" customHeight="1">
+    <row r="6" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="62"/>
       <c r="B6" s="62"/>
       <c r="C6" s="62"/>
@@ -13464,7 +13193,7 @@
       <c r="AB6" s="62"/>
       <c r="AC6" s="62"/>
     </row>
-    <row r="7" spans="1:96" ht="15" customHeight="1">
+    <row r="7" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="63" t="s">
         <v>36</v>
       </c>
@@ -13490,29 +13219,29 @@
       <c r="O7" s="470"/>
       <c r="P7" s="471"/>
       <c r="Q7" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="R7" s="479" t="s">
         <v>69</v>
-      </c>
-      <c r="R7" s="479" t="s">
-        <v>70</v>
       </c>
       <c r="S7" s="479"/>
       <c r="T7" s="479"/>
       <c r="U7" s="479"/>
       <c r="V7" s="480" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W7" s="481"/>
       <c r="X7" s="480" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y7" s="481"/>
       <c r="Z7" s="469" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA7" s="470"/>
       <c r="AB7" s="471"/>
       <c r="AC7" s="469" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD7" s="470"/>
       <c r="AE7" s="470"/>
@@ -13577,19 +13306,19 @@
       <c r="CL7" s="66"/>
       <c r="CM7" s="66"/>
     </row>
-    <row r="8" spans="1:96" ht="15" customHeight="1">
+    <row r="8" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="67">
         <v>1</v>
       </c>
       <c r="B8" s="461" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8" s="462"/>
       <c r="D8" s="462"/>
       <c r="E8" s="462"/>
       <c r="F8" s="463"/>
       <c r="G8" s="458" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H8" s="459"/>
       <c r="I8" s="459"/>
@@ -13606,7 +13335,7 @@
       <c r="T8" s="462"/>
       <c r="U8" s="463"/>
       <c r="V8" s="467" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W8" s="468"/>
       <c r="X8" s="472"/>
@@ -13677,36 +13406,36 @@
       <c r="CL8" s="66"/>
       <c r="CM8" s="66"/>
     </row>
-    <row r="9" spans="1:96" ht="15" customHeight="1">
+    <row r="9" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="67">
         <v>2</v>
       </c>
       <c r="B9" s="461" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="462"/>
       <c r="D9" s="462"/>
       <c r="E9" s="462"/>
       <c r="F9" s="463"/>
       <c r="G9" s="458" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H9" s="459"/>
       <c r="I9" s="459"/>
       <c r="J9" s="459"/>
       <c r="K9" s="460"/>
       <c r="L9" s="461" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M9" s="462"/>
       <c r="N9" s="462"/>
       <c r="O9" s="462"/>
       <c r="P9" s="463"/>
       <c r="Q9" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="R9" s="461" t="s">
         <v>80</v>
-      </c>
-      <c r="R9" s="461" t="s">
-        <v>81</v>
       </c>
       <c r="S9" s="462"/>
       <c r="T9" s="462"/>
@@ -13783,36 +13512,36 @@
       <c r="CL9" s="66"/>
       <c r="CM9" s="66"/>
     </row>
-    <row r="10" spans="1:96" ht="15" customHeight="1">
+    <row r="10" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="67">
         <v>3</v>
       </c>
       <c r="B10" s="461" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="462"/>
       <c r="D10" s="462"/>
       <c r="E10" s="462"/>
       <c r="F10" s="463"/>
       <c r="G10" s="458" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H10" s="459"/>
       <c r="I10" s="459"/>
       <c r="J10" s="459"/>
       <c r="K10" s="460"/>
       <c r="L10" s="461" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M10" s="462"/>
       <c r="N10" s="462"/>
       <c r="O10" s="462"/>
       <c r="P10" s="463"/>
       <c r="Q10" s="68" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R10" s="461" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S10" s="462"/>
       <c r="T10" s="462"/>
@@ -13889,36 +13618,36 @@
       <c r="CL10" s="66"/>
       <c r="CM10" s="66"/>
     </row>
-    <row r="11" spans="1:96" ht="15" customHeight="1">
+    <row r="11" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="67">
         <v>4</v>
       </c>
       <c r="B11" s="461" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" s="462"/>
       <c r="D11" s="462"/>
       <c r="E11" s="462"/>
       <c r="F11" s="463"/>
       <c r="G11" s="458" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H11" s="459"/>
       <c r="I11" s="459"/>
       <c r="J11" s="459"/>
       <c r="K11" s="460"/>
       <c r="L11" s="461" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M11" s="462"/>
       <c r="N11" s="462"/>
       <c r="O11" s="462"/>
       <c r="P11" s="463"/>
       <c r="Q11" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="R11" s="461" t="s">
         <v>80</v>
-      </c>
-      <c r="R11" s="461" t="s">
-        <v>81</v>
       </c>
       <c r="S11" s="462"/>
       <c r="T11" s="462"/>
@@ -13995,7 +13724,7 @@
       <c r="CL11" s="66"/>
       <c r="CM11" s="66"/>
     </row>
-    <row r="12" spans="1:96" ht="15" customHeight="1">
+    <row r="12" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="67"/>
       <c r="B12" s="461"/>
       <c r="C12" s="462"/>
@@ -14087,7 +13816,7 @@
       <c r="CL12" s="66"/>
       <c r="CM12" s="66"/>
     </row>
-    <row r="13" spans="1:96" s="79" customFormat="1" ht="15" customHeight="1">
+    <row r="13" spans="1:96" s="79" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="74"/>
       <c r="B13" s="74"/>
       <c r="C13" s="74"/>
@@ -14138,7 +13867,7 @@
       <c r="CQ13" s="81"/>
       <c r="CR13" s="81"/>
     </row>
-    <row r="14" spans="1:96" s="79" customFormat="1" ht="15" customHeight="1">
+    <row r="14" spans="1:96" s="79" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="82"/>
       <c r="B14" s="82"/>
       <c r="C14" s="82"/>
@@ -14189,9 +13918,9 @@
       <c r="CQ14" s="81"/>
       <c r="CR14" s="81"/>
     </row>
-    <row r="15" spans="1:96" s="87" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="15" spans="1:96" s="87" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="474" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B15" s="475"/>
       <c r="C15" s="475"/>
@@ -14217,7 +13946,7 @@
       <c r="W15" s="475"/>
       <c r="X15" s="475"/>
       <c r="Y15" s="476" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Z15" s="477"/>
       <c r="AA15" s="477"/>
@@ -14232,7 +13961,7 @@
       <c r="AJ15" s="477"/>
       <c r="AK15" s="478"/>
     </row>
-    <row r="16" spans="1:96" ht="15" customHeight="1">
+    <row r="16" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="88"/>
       <c r="B16" s="89"/>
       <c r="C16" s="89"/>
@@ -14286,7 +14015,7 @@
       <c r="CQ16" s="66"/>
       <c r="CR16" s="66"/>
     </row>
-    <row r="17" spans="1:37" ht="15" customHeight="1">
+    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="95"/>
       <c r="B17" s="96"/>
       <c r="C17" s="96"/>
@@ -14325,7 +14054,7 @@
       <c r="AJ17" s="99"/>
       <c r="AK17" s="100"/>
     </row>
-    <row r="18" spans="1:37" ht="15" customHeight="1">
+    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="95"/>
       <c r="B18" s="96"/>
       <c r="C18" s="96"/>
@@ -14364,7 +14093,7 @@
       <c r="AJ18" s="99"/>
       <c r="AK18" s="100"/>
     </row>
-    <row r="19" spans="1:37" ht="15" customHeight="1">
+    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="95"/>
       <c r="B19" s="96"/>
       <c r="C19" s="96"/>
@@ -14403,7 +14132,7 @@
       <c r="AJ19" s="99"/>
       <c r="AK19" s="100"/>
     </row>
-    <row r="20" spans="1:37" ht="15" customHeight="1">
+    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="95"/>
       <c r="B20" s="96"/>
       <c r="C20" s="96"/>
@@ -14442,7 +14171,7 @@
       <c r="AJ20" s="99"/>
       <c r="AK20" s="100"/>
     </row>
-    <row r="21" spans="1:37" ht="15" customHeight="1">
+    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="95"/>
       <c r="B21" s="96"/>
       <c r="C21" s="96"/>
@@ -14481,7 +14210,7 @@
       <c r="AJ21" s="99"/>
       <c r="AK21" s="100"/>
     </row>
-    <row r="22" spans="1:37" ht="15" customHeight="1">
+    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="95"/>
       <c r="B22" s="96"/>
       <c r="C22" s="96"/>
@@ -14520,7 +14249,7 @@
       <c r="AJ22" s="99"/>
       <c r="AK22" s="100"/>
     </row>
-    <row r="23" spans="1:37" ht="15" customHeight="1">
+    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="95"/>
       <c r="B23" s="96"/>
       <c r="C23" s="96"/>
@@ -14559,7 +14288,7 @@
       <c r="AJ23" s="99"/>
       <c r="AK23" s="100"/>
     </row>
-    <row r="24" spans="1:37" ht="15" customHeight="1">
+    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="95"/>
       <c r="B24" s="96"/>
       <c r="C24" s="96"/>
@@ -14598,7 +14327,7 @@
       <c r="AJ24" s="99"/>
       <c r="AK24" s="100"/>
     </row>
-    <row r="25" spans="1:37" ht="15" customHeight="1">
+    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="95"/>
       <c r="B25" s="96"/>
       <c r="C25" s="96"/>
@@ -14637,7 +14366,7 @@
       <c r="AJ25" s="99"/>
       <c r="AK25" s="100"/>
     </row>
-    <row r="26" spans="1:37" ht="15" customHeight="1">
+    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="95"/>
       <c r="B26" s="96"/>
       <c r="C26" s="96"/>
@@ -14676,7 +14405,7 @@
       <c r="AJ26" s="99"/>
       <c r="AK26" s="100"/>
     </row>
-    <row r="27" spans="1:37" ht="15" customHeight="1">
+    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="95"/>
       <c r="B27" s="96"/>
       <c r="C27" s="96"/>
@@ -14715,7 +14444,7 @@
       <c r="AJ27" s="99"/>
       <c r="AK27" s="100"/>
     </row>
-    <row r="28" spans="1:37" ht="15" customHeight="1">
+    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="95"/>
       <c r="B28" s="96"/>
       <c r="C28" s="96"/>
@@ -14754,7 +14483,7 @@
       <c r="AJ28" s="99"/>
       <c r="AK28" s="100"/>
     </row>
-    <row r="29" spans="1:37" ht="15" customHeight="1">
+    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="95"/>
       <c r="B29" s="96"/>
       <c r="C29" s="96"/>
@@ -14793,7 +14522,7 @@
       <c r="AJ29" s="99"/>
       <c r="AK29" s="100"/>
     </row>
-    <row r="30" spans="1:37" ht="15" customHeight="1">
+    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="95"/>
       <c r="B30" s="96"/>
       <c r="C30" s="96"/>
@@ -14832,7 +14561,7 @@
       <c r="AJ30" s="99"/>
       <c r="AK30" s="100"/>
     </row>
-    <row r="31" spans="1:37" ht="15" customHeight="1">
+    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="101"/>
       <c r="B31" s="102"/>
       <c r="C31" s="102"/>
@@ -14871,7 +14600,7 @@
       <c r="AJ31" s="106"/>
       <c r="AK31" s="107"/>
     </row>
-    <row r="32" spans="1:37" ht="15" customHeight="1">
+    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D32" s="108"/>
       <c r="X32" s="108"/>
     </row>
@@ -14950,12 +14679,11 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="93" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -14968,110 +14696,110 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="35.77734375" style="12" customWidth="1"/>
+    <col min="1" max="1" width="25.5" style="12" customWidth="1"/>
+    <col min="2" max="2" width="35.83203125" style="12" customWidth="1"/>
     <col min="3" max="16384" width="9.33203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
         <v>48</v>
       </c>
       <c r="B1" s="50"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="51" t="s">
         <v>49</v>
       </c>
       <c r="B2" s="50"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="52" t="s">
         <v>50</v>
       </c>
       <c r="B3" s="50"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="51" t="s">
         <v>51</v>
       </c>
       <c r="B4" s="50"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="51" t="s">
         <v>52</v>
       </c>
       <c r="B5" s="50"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="51" t="s">
         <v>53</v>
       </c>
       <c r="B6" s="50"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="51" t="s">
         <v>54</v>
       </c>
       <c r="B7" s="50"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="52" t="s">
         <v>55</v>
       </c>
       <c r="B8" s="15"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="52" t="s">
         <v>56</v>
       </c>
       <c r="B9" s="50"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="52" t="s">
         <v>57</v>
       </c>
       <c r="B10" s="50"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="52" t="s">
         <v>58</v>
       </c>
       <c r="B11" s="50"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="52" t="s">
         <v>59</v>
       </c>
       <c r="B12" s="50"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="52" t="s">
         <v>60</v>
       </c>
       <c r="B13" s="50"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="52" t="s">
         <v>61</v>
       </c>
       <c r="B14" s="50"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="52" t="s">
         <v>62</v>
       </c>
       <c r="B15" s="50"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B16" s="50"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="16" t="s">
         <v>64</v>
       </c>
